--- a/实施周数据-张磊组/11月/45周/实施周数据-张磊组-王骞.xlsx
+++ b/实施周数据-张磊组/11月/45周/实施周数据-张磊组-王骞.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="300" windowWidth="20730" windowHeight="9030" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="300" windowWidth="20730" windowHeight="9030" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="项目数据分析表" sheetId="5" r:id="rId1"/>
@@ -3019,6 +3019,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3069,9 +3072,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -3367,25 +3367,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="14.25">
-      <c r="A1" s="65" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66"/>
-      <c r="K1" s="66"/>
-      <c r="L1" s="66"/>
-      <c r="M1" s="66"/>
-      <c r="N1" s="66"/>
-      <c r="O1" s="67"/>
-      <c r="P1" s="67"/>
-      <c r="Q1" s="67"/>
+      <c r="A1" s="66" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
+      <c r="L1" s="67"/>
+      <c r="M1" s="67"/>
+      <c r="N1" s="67"/>
+      <c r="O1" s="68"/>
+      <c r="P1" s="68"/>
+      <c r="Q1" s="68"/>
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="10" t="s">
@@ -3435,8 +3435,8 @@
       <c r="Q2" s="40"/>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="59"/>
-      <c r="B3" s="62" t="s">
+      <c r="A3" s="60"/>
+      <c r="B3" s="63" t="s">
         <v>41</v>
       </c>
       <c r="C3" s="17" t="s">
@@ -3476,8 +3476,8 @@
       <c r="Q3" s="40"/>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="60"/>
-      <c r="B4" s="63"/>
+      <c r="A4" s="61"/>
+      <c r="B4" s="64"/>
       <c r="C4" s="21" t="s">
         <v>16</v>
       </c>
@@ -3525,8 +3525,8 @@
       <c r="Q4" s="40"/>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="60"/>
-      <c r="B5" s="63"/>
+      <c r="A5" s="61"/>
+      <c r="B5" s="64"/>
       <c r="C5" s="21" t="s">
         <v>17</v>
       </c>
@@ -3564,8 +3564,8 @@
       <c r="Q5" s="40"/>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="60"/>
-      <c r="B6" s="63"/>
+      <c r="A6" s="61"/>
+      <c r="B6" s="64"/>
       <c r="C6" s="21" t="s">
         <v>18</v>
       </c>
@@ -3603,8 +3603,8 @@
       <c r="Q6" s="40"/>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="60"/>
-      <c r="B7" s="63"/>
+      <c r="A7" s="61"/>
+      <c r="B7" s="64"/>
       <c r="C7" s="21" t="s">
         <v>19</v>
       </c>
@@ -3642,8 +3642,8 @@
       <c r="Q7" s="40"/>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="60"/>
-      <c r="B8" s="63"/>
+      <c r="A8" s="61"/>
+      <c r="B8" s="64"/>
       <c r="C8" s="21" t="s">
         <v>20</v>
       </c>
@@ -3681,8 +3681,8 @@
       <c r="Q8" s="40"/>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="60"/>
-      <c r="B9" s="63"/>
+      <c r="A9" s="61"/>
+      <c r="B9" s="64"/>
       <c r="C9" s="21" t="s">
         <v>21</v>
       </c>
@@ -3720,8 +3720,8 @@
       <c r="Q9" s="40"/>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="60"/>
-      <c r="B10" s="63"/>
+      <c r="A10" s="61"/>
+      <c r="B10" s="64"/>
       <c r="C10" s="25" t="s">
         <v>22</v>
       </c>
@@ -3759,8 +3759,8 @@
       <c r="Q10" s="40"/>
     </row>
     <row r="11" spans="1:17" ht="14.25" thickBot="1">
-      <c r="A11" s="61"/>
-      <c r="B11" s="64"/>
+      <c r="A11" s="62"/>
+      <c r="B11" s="65"/>
       <c r="C11" s="31" t="s">
         <v>23</v>
       </c>
@@ -3813,8 +3813,8 @@
       <c r="Q11" s="40"/>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" s="59"/>
-      <c r="B12" s="62" t="s">
+      <c r="A12" s="60"/>
+      <c r="B12" s="63" t="s">
         <v>132</v>
       </c>
       <c r="C12" s="17" t="s">
@@ -3851,8 +3851,8 @@
       </c>
     </row>
     <row r="13" spans="1:17">
-      <c r="A13" s="60"/>
-      <c r="B13" s="63"/>
+      <c r="A13" s="61"/>
+      <c r="B13" s="64"/>
       <c r="C13" s="21" t="s">
         <v>16</v>
       </c>
@@ -3897,8 +3897,8 @@
       </c>
     </row>
     <row r="14" spans="1:17">
-      <c r="A14" s="60"/>
-      <c r="B14" s="63"/>
+      <c r="A14" s="61"/>
+      <c r="B14" s="64"/>
       <c r="C14" s="21" t="s">
         <v>17</v>
       </c>
@@ -3933,8 +3933,8 @@
       </c>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15" s="60"/>
-      <c r="B15" s="63"/>
+      <c r="A15" s="61"/>
+      <c r="B15" s="64"/>
       <c r="C15" s="21" t="s">
         <v>18</v>
       </c>
@@ -3969,8 +3969,8 @@
       </c>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="60"/>
-      <c r="B16" s="63"/>
+      <c r="A16" s="61"/>
+      <c r="B16" s="64"/>
       <c r="C16" s="21" t="s">
         <v>19</v>
       </c>
@@ -4005,8 +4005,8 @@
       </c>
     </row>
     <row r="17" spans="1:14">
-      <c r="A17" s="60"/>
-      <c r="B17" s="63"/>
+      <c r="A17" s="61"/>
+      <c r="B17" s="64"/>
       <c r="C17" s="21" t="s">
         <v>20</v>
       </c>
@@ -4041,8 +4041,8 @@
       </c>
     </row>
     <row r="18" spans="1:14">
-      <c r="A18" s="60"/>
-      <c r="B18" s="63"/>
+      <c r="A18" s="61"/>
+      <c r="B18" s="64"/>
       <c r="C18" s="21" t="s">
         <v>21</v>
       </c>
@@ -4077,8 +4077,8 @@
       </c>
     </row>
     <row r="19" spans="1:14" ht="14.25" thickBot="1">
-      <c r="A19" s="60"/>
-      <c r="B19" s="63"/>
+      <c r="A19" s="61"/>
+      <c r="B19" s="64"/>
       <c r="C19" s="25" t="s">
         <v>22</v>
       </c>
@@ -4113,8 +4113,8 @@
       </c>
     </row>
     <row r="20" spans="1:14" ht="14.25" thickBot="1">
-      <c r="A20" s="61"/>
-      <c r="B20" s="64"/>
+      <c r="A20" s="62"/>
+      <c r="B20" s="65"/>
       <c r="C20" s="31" t="s">
         <v>23</v>
       </c>
@@ -4164,8 +4164,8 @@
       </c>
     </row>
     <row r="21" spans="1:14">
-      <c r="A21" s="59"/>
-      <c r="B21" s="62" t="s">
+      <c r="A21" s="60"/>
+      <c r="B21" s="63" t="s">
         <v>199</v>
       </c>
       <c r="C21" s="17" t="s">
@@ -4202,8 +4202,8 @@
       </c>
     </row>
     <row r="22" spans="1:14">
-      <c r="A22" s="60"/>
-      <c r="B22" s="63"/>
+      <c r="A22" s="61"/>
+      <c r="B22" s="64"/>
       <c r="C22" s="21" t="s">
         <v>16</v>
       </c>
@@ -4235,8 +4235,8 @@
       </c>
     </row>
     <row r="23" spans="1:14">
-      <c r="A23" s="60"/>
-      <c r="B23" s="63"/>
+      <c r="A23" s="61"/>
+      <c r="B23" s="64"/>
       <c r="C23" s="21" t="s">
         <v>17</v>
       </c>
@@ -4271,8 +4271,8 @@
       </c>
     </row>
     <row r="24" spans="1:14">
-      <c r="A24" s="60"/>
-      <c r="B24" s="63"/>
+      <c r="A24" s="61"/>
+      <c r="B24" s="64"/>
       <c r="C24" s="21" t="s">
         <v>18</v>
       </c>
@@ -4307,8 +4307,8 @@
       </c>
     </row>
     <row r="25" spans="1:14">
-      <c r="A25" s="60"/>
-      <c r="B25" s="63"/>
+      <c r="A25" s="61"/>
+      <c r="B25" s="64"/>
       <c r="C25" s="21" t="s">
         <v>19</v>
       </c>
@@ -4343,8 +4343,8 @@
       </c>
     </row>
     <row r="26" spans="1:14">
-      <c r="A26" s="60"/>
-      <c r="B26" s="63"/>
+      <c r="A26" s="61"/>
+      <c r="B26" s="64"/>
       <c r="C26" s="21" t="s">
         <v>20</v>
       </c>
@@ -4379,8 +4379,8 @@
       </c>
     </row>
     <row r="27" spans="1:14">
-      <c r="A27" s="60"/>
-      <c r="B27" s="63"/>
+      <c r="A27" s="61"/>
+      <c r="B27" s="64"/>
       <c r="C27" s="21" t="s">
         <v>21</v>
       </c>
@@ -4415,8 +4415,8 @@
       </c>
     </row>
     <row r="28" spans="1:14" ht="14.25" thickBot="1">
-      <c r="A28" s="60"/>
-      <c r="B28" s="63"/>
+      <c r="A28" s="61"/>
+      <c r="B28" s="64"/>
       <c r="C28" s="25" t="s">
         <v>22</v>
       </c>
@@ -4451,8 +4451,8 @@
       </c>
     </row>
     <row r="29" spans="1:14" ht="14.25" thickBot="1">
-      <c r="A29" s="61"/>
-      <c r="B29" s="64"/>
+      <c r="A29" s="62"/>
+      <c r="B29" s="65"/>
       <c r="C29" s="31" t="s">
         <v>23</v>
       </c>
@@ -4502,8 +4502,8 @@
       </c>
     </row>
     <row r="30" spans="1:14">
-      <c r="A30" s="59"/>
-      <c r="B30" s="62" t="s">
+      <c r="A30" s="60"/>
+      <c r="B30" s="63" t="s">
         <v>198</v>
       </c>
       <c r="C30" s="17" t="s">
@@ -4540,8 +4540,8 @@
       </c>
     </row>
     <row r="31" spans="1:14">
-      <c r="A31" s="60"/>
-      <c r="B31" s="63"/>
+      <c r="A31" s="61"/>
+      <c r="B31" s="64"/>
       <c r="C31" s="21" t="s">
         <v>16</v>
       </c>
@@ -4585,8 +4585,8 @@
       </c>
     </row>
     <row r="32" spans="1:14">
-      <c r="A32" s="60"/>
-      <c r="B32" s="63"/>
+      <c r="A32" s="61"/>
+      <c r="B32" s="64"/>
       <c r="C32" s="21" t="s">
         <v>17</v>
       </c>
@@ -4621,8 +4621,8 @@
       </c>
     </row>
     <row r="33" spans="1:14">
-      <c r="A33" s="60"/>
-      <c r="B33" s="63"/>
+      <c r="A33" s="61"/>
+      <c r="B33" s="64"/>
       <c r="C33" s="21" t="s">
         <v>18</v>
       </c>
@@ -4657,8 +4657,8 @@
       </c>
     </row>
     <row r="34" spans="1:14">
-      <c r="A34" s="60"/>
-      <c r="B34" s="63"/>
+      <c r="A34" s="61"/>
+      <c r="B34" s="64"/>
       <c r="C34" s="21" t="s">
         <v>19</v>
       </c>
@@ -4693,8 +4693,8 @@
       </c>
     </row>
     <row r="35" spans="1:14">
-      <c r="A35" s="60"/>
-      <c r="B35" s="63"/>
+      <c r="A35" s="61"/>
+      <c r="B35" s="64"/>
       <c r="C35" s="21" t="s">
         <v>20</v>
       </c>
@@ -4729,8 +4729,8 @@
       </c>
     </row>
     <row r="36" spans="1:14">
-      <c r="A36" s="60"/>
-      <c r="B36" s="63"/>
+      <c r="A36" s="61"/>
+      <c r="B36" s="64"/>
       <c r="C36" s="21" t="s">
         <v>21</v>
       </c>
@@ -4765,8 +4765,8 @@
       </c>
     </row>
     <row r="37" spans="1:14" ht="14.25" thickBot="1">
-      <c r="A37" s="60"/>
-      <c r="B37" s="63"/>
+      <c r="A37" s="61"/>
+      <c r="B37" s="64"/>
       <c r="C37" s="25" t="s">
         <v>22</v>
       </c>
@@ -4801,8 +4801,8 @@
       </c>
     </row>
     <row r="38" spans="1:14" ht="14.25" thickBot="1">
-      <c r="A38" s="61"/>
-      <c r="B38" s="64"/>
+      <c r="A38" s="62"/>
+      <c r="B38" s="65"/>
       <c r="C38" s="31" t="s">
         <v>23</v>
       </c>
@@ -4852,8 +4852,8 @@
       </c>
     </row>
     <row r="39" spans="1:14">
-      <c r="A39" s="59"/>
-      <c r="B39" s="62" t="s">
+      <c r="A39" s="60"/>
+      <c r="B39" s="63" t="s">
         <v>200</v>
       </c>
       <c r="C39" s="17" t="s">
@@ -4890,8 +4890,8 @@
       </c>
     </row>
     <row r="40" spans="1:14">
-      <c r="A40" s="60"/>
-      <c r="B40" s="63"/>
+      <c r="A40" s="61"/>
+      <c r="B40" s="64"/>
       <c r="C40" s="21" t="s">
         <v>16</v>
       </c>
@@ -4931,8 +4931,8 @@
       </c>
     </row>
     <row r="41" spans="1:14">
-      <c r="A41" s="60"/>
-      <c r="B41" s="63"/>
+      <c r="A41" s="61"/>
+      <c r="B41" s="64"/>
       <c r="C41" s="21" t="s">
         <v>17</v>
       </c>
@@ -4967,8 +4967,8 @@
       </c>
     </row>
     <row r="42" spans="1:14">
-      <c r="A42" s="60"/>
-      <c r="B42" s="63"/>
+      <c r="A42" s="61"/>
+      <c r="B42" s="64"/>
       <c r="C42" s="21" t="s">
         <v>18</v>
       </c>
@@ -5003,8 +5003,8 @@
       </c>
     </row>
     <row r="43" spans="1:14">
-      <c r="A43" s="60"/>
-      <c r="B43" s="63"/>
+      <c r="A43" s="61"/>
+      <c r="B43" s="64"/>
       <c r="C43" s="21" t="s">
         <v>19</v>
       </c>
@@ -5039,8 +5039,8 @@
       </c>
     </row>
     <row r="44" spans="1:14">
-      <c r="A44" s="60"/>
-      <c r="B44" s="63"/>
+      <c r="A44" s="61"/>
+      <c r="B44" s="64"/>
       <c r="C44" s="21" t="s">
         <v>20</v>
       </c>
@@ -5075,8 +5075,8 @@
       </c>
     </row>
     <row r="45" spans="1:14">
-      <c r="A45" s="60"/>
-      <c r="B45" s="63"/>
+      <c r="A45" s="61"/>
+      <c r="B45" s="64"/>
       <c r="C45" s="21" t="s">
         <v>21</v>
       </c>
@@ -5111,8 +5111,8 @@
       </c>
     </row>
     <row r="46" spans="1:14" ht="14.25" thickBot="1">
-      <c r="A46" s="60"/>
-      <c r="B46" s="63"/>
+      <c r="A46" s="61"/>
+      <c r="B46" s="64"/>
       <c r="C46" s="25" t="s">
         <v>22</v>
       </c>
@@ -5147,8 +5147,8 @@
       </c>
     </row>
     <row r="47" spans="1:14" ht="14.25" thickBot="1">
-      <c r="A47" s="61"/>
-      <c r="B47" s="64"/>
+      <c r="A47" s="62"/>
+      <c r="B47" s="65"/>
       <c r="C47" s="31" t="s">
         <v>23</v>
       </c>
@@ -5198,8 +5198,8 @@
       </c>
     </row>
     <row r="48" spans="1:14">
-      <c r="A48" s="59"/>
-      <c r="B48" s="62" t="s">
+      <c r="A48" s="60"/>
+      <c r="B48" s="63" t="s">
         <v>228</v>
       </c>
       <c r="C48" s="17" t="s">
@@ -5236,8 +5236,8 @@
       </c>
     </row>
     <row r="49" spans="1:14">
-      <c r="A49" s="60"/>
-      <c r="B49" s="63"/>
+      <c r="A49" s="61"/>
+      <c r="B49" s="64"/>
       <c r="C49" s="21" t="s">
         <v>16</v>
       </c>
@@ -5277,8 +5277,8 @@
       </c>
     </row>
     <row r="50" spans="1:14">
-      <c r="A50" s="60"/>
-      <c r="B50" s="63"/>
+      <c r="A50" s="61"/>
+      <c r="B50" s="64"/>
       <c r="C50" s="21" t="s">
         <v>17</v>
       </c>
@@ -5313,8 +5313,8 @@
       </c>
     </row>
     <row r="51" spans="1:14">
-      <c r="A51" s="60"/>
-      <c r="B51" s="63"/>
+      <c r="A51" s="61"/>
+      <c r="B51" s="64"/>
       <c r="C51" s="21" t="s">
         <v>18</v>
       </c>
@@ -5349,8 +5349,8 @@
       </c>
     </row>
     <row r="52" spans="1:14">
-      <c r="A52" s="60"/>
-      <c r="B52" s="63"/>
+      <c r="A52" s="61"/>
+      <c r="B52" s="64"/>
       <c r="C52" s="21" t="s">
         <v>19</v>
       </c>
@@ -5385,8 +5385,8 @@
       </c>
     </row>
     <row r="53" spans="1:14">
-      <c r="A53" s="60"/>
-      <c r="B53" s="63"/>
+      <c r="A53" s="61"/>
+      <c r="B53" s="64"/>
       <c r="C53" s="21" t="s">
         <v>20</v>
       </c>
@@ -5421,8 +5421,8 @@
       </c>
     </row>
     <row r="54" spans="1:14">
-      <c r="A54" s="60"/>
-      <c r="B54" s="63"/>
+      <c r="A54" s="61"/>
+      <c r="B54" s="64"/>
       <c r="C54" s="21" t="s">
         <v>21</v>
       </c>
@@ -5457,8 +5457,8 @@
       </c>
     </row>
     <row r="55" spans="1:14" ht="14.25" thickBot="1">
-      <c r="A55" s="60"/>
-      <c r="B55" s="63"/>
+      <c r="A55" s="61"/>
+      <c r="B55" s="64"/>
       <c r="C55" s="25" t="s">
         <v>22</v>
       </c>
@@ -5493,8 +5493,8 @@
       </c>
     </row>
     <row r="56" spans="1:14" ht="14.25" thickBot="1">
-      <c r="A56" s="61"/>
-      <c r="B56" s="64"/>
+      <c r="A56" s="62"/>
+      <c r="B56" s="65"/>
       <c r="C56" s="31" t="s">
         <v>23</v>
       </c>
@@ -5544,8 +5544,8 @@
       </c>
     </row>
     <row r="57" spans="1:14">
-      <c r="A57" s="59"/>
-      <c r="B57" s="62" t="s">
+      <c r="A57" s="60"/>
+      <c r="B57" s="63" t="s">
         <v>267</v>
       </c>
       <c r="C57" s="17" t="s">
@@ -5582,8 +5582,8 @@
       </c>
     </row>
     <row r="58" spans="1:14">
-      <c r="A58" s="60"/>
-      <c r="B58" s="63"/>
+      <c r="A58" s="61"/>
+      <c r="B58" s="64"/>
       <c r="C58" s="21" t="s">
         <v>16</v>
       </c>
@@ -5623,8 +5623,8 @@
       </c>
     </row>
     <row r="59" spans="1:14">
-      <c r="A59" s="60"/>
-      <c r="B59" s="63"/>
+      <c r="A59" s="61"/>
+      <c r="B59" s="64"/>
       <c r="C59" s="21" t="s">
         <v>17</v>
       </c>
@@ -5659,8 +5659,8 @@
       </c>
     </row>
     <row r="60" spans="1:14">
-      <c r="A60" s="60"/>
-      <c r="B60" s="63"/>
+      <c r="A60" s="61"/>
+      <c r="B60" s="64"/>
       <c r="C60" s="21" t="s">
         <v>18</v>
       </c>
@@ -5695,8 +5695,8 @@
       </c>
     </row>
     <row r="61" spans="1:14">
-      <c r="A61" s="60"/>
-      <c r="B61" s="63"/>
+      <c r="A61" s="61"/>
+      <c r="B61" s="64"/>
       <c r="C61" s="21" t="s">
         <v>19</v>
       </c>
@@ -5731,8 +5731,8 @@
       </c>
     </row>
     <row r="62" spans="1:14">
-      <c r="A62" s="60"/>
-      <c r="B62" s="63"/>
+      <c r="A62" s="61"/>
+      <c r="B62" s="64"/>
       <c r="C62" s="21" t="s">
         <v>20</v>
       </c>
@@ -5767,8 +5767,8 @@
       </c>
     </row>
     <row r="63" spans="1:14">
-      <c r="A63" s="60"/>
-      <c r="B63" s="63"/>
+      <c r="A63" s="61"/>
+      <c r="B63" s="64"/>
       <c r="C63" s="21" t="s">
         <v>21</v>
       </c>
@@ -5803,8 +5803,8 @@
       </c>
     </row>
     <row r="64" spans="1:14" ht="14.25" thickBot="1">
-      <c r="A64" s="60"/>
-      <c r="B64" s="63"/>
+      <c r="A64" s="61"/>
+      <c r="B64" s="64"/>
       <c r="C64" s="25" t="s">
         <v>22</v>
       </c>
@@ -5839,8 +5839,8 @@
       </c>
     </row>
     <row r="65" spans="1:14" ht="14.25" thickBot="1">
-      <c r="A65" s="61"/>
-      <c r="B65" s="64"/>
+      <c r="A65" s="62"/>
+      <c r="B65" s="65"/>
       <c r="C65" s="31" t="s">
         <v>23</v>
       </c>
@@ -5890,8 +5890,8 @@
       </c>
     </row>
     <row r="66" spans="1:14">
-      <c r="A66" s="59"/>
-      <c r="B66" s="62" t="s">
+      <c r="A66" s="60"/>
+      <c r="B66" s="63" t="s">
         <v>421</v>
       </c>
       <c r="C66" s="17" t="s">
@@ -5928,8 +5928,8 @@
       </c>
     </row>
     <row r="67" spans="1:14">
-      <c r="A67" s="60"/>
-      <c r="B67" s="63"/>
+      <c r="A67" s="61"/>
+      <c r="B67" s="64"/>
       <c r="C67" s="21" t="s">
         <v>16</v>
       </c>
@@ -5969,8 +5969,8 @@
       </c>
     </row>
     <row r="68" spans="1:14">
-      <c r="A68" s="60"/>
-      <c r="B68" s="63"/>
+      <c r="A68" s="61"/>
+      <c r="B68" s="64"/>
       <c r="C68" s="21" t="s">
         <v>17</v>
       </c>
@@ -6005,8 +6005,8 @@
       </c>
     </row>
     <row r="69" spans="1:14">
-      <c r="A69" s="60"/>
-      <c r="B69" s="63"/>
+      <c r="A69" s="61"/>
+      <c r="B69" s="64"/>
       <c r="C69" s="21" t="s">
         <v>18</v>
       </c>
@@ -6041,8 +6041,8 @@
       </c>
     </row>
     <row r="70" spans="1:14">
-      <c r="A70" s="60"/>
-      <c r="B70" s="63"/>
+      <c r="A70" s="61"/>
+      <c r="B70" s="64"/>
       <c r="C70" s="21" t="s">
         <v>19</v>
       </c>
@@ -6077,8 +6077,8 @@
       </c>
     </row>
     <row r="71" spans="1:14">
-      <c r="A71" s="60"/>
-      <c r="B71" s="63"/>
+      <c r="A71" s="61"/>
+      <c r="B71" s="64"/>
       <c r="C71" s="21" t="s">
         <v>20</v>
       </c>
@@ -6113,8 +6113,8 @@
       </c>
     </row>
     <row r="72" spans="1:14">
-      <c r="A72" s="60"/>
-      <c r="B72" s="63"/>
+      <c r="A72" s="61"/>
+      <c r="B72" s="64"/>
       <c r="C72" s="21" t="s">
         <v>21</v>
       </c>
@@ -6149,8 +6149,8 @@
       </c>
     </row>
     <row r="73" spans="1:14" ht="14.25" thickBot="1">
-      <c r="A73" s="60"/>
-      <c r="B73" s="63"/>
+      <c r="A73" s="61"/>
+      <c r="B73" s="64"/>
       <c r="C73" s="25" t="s">
         <v>22</v>
       </c>
@@ -6185,8 +6185,8 @@
       </c>
     </row>
     <row r="74" spans="1:14" ht="14.25" thickBot="1">
-      <c r="A74" s="61"/>
-      <c r="B74" s="64"/>
+      <c r="A74" s="62"/>
+      <c r="B74" s="65"/>
       <c r="C74" s="31" t="s">
         <v>23</v>
       </c>
@@ -6236,8 +6236,8 @@
       </c>
     </row>
     <row r="75" spans="1:14">
-      <c r="A75" s="59"/>
-      <c r="B75" s="62" t="s">
+      <c r="A75" s="60"/>
+      <c r="B75" s="63" t="s">
         <v>422</v>
       </c>
       <c r="C75" s="17" t="s">
@@ -6274,8 +6274,8 @@
       </c>
     </row>
     <row r="76" spans="1:14">
-      <c r="A76" s="60"/>
-      <c r="B76" s="63"/>
+      <c r="A76" s="61"/>
+      <c r="B76" s="64"/>
       <c r="C76" s="21" t="s">
         <v>16</v>
       </c>
@@ -6315,8 +6315,8 @@
       </c>
     </row>
     <row r="77" spans="1:14">
-      <c r="A77" s="60"/>
-      <c r="B77" s="63"/>
+      <c r="A77" s="61"/>
+      <c r="B77" s="64"/>
       <c r="C77" s="21" t="s">
         <v>17</v>
       </c>
@@ -6351,8 +6351,8 @@
       </c>
     </row>
     <row r="78" spans="1:14">
-      <c r="A78" s="60"/>
-      <c r="B78" s="63"/>
+      <c r="A78" s="61"/>
+      <c r="B78" s="64"/>
       <c r="C78" s="21" t="s">
         <v>18</v>
       </c>
@@ -6387,8 +6387,8 @@
       </c>
     </row>
     <row r="79" spans="1:14">
-      <c r="A79" s="60"/>
-      <c r="B79" s="63"/>
+      <c r="A79" s="61"/>
+      <c r="B79" s="64"/>
       <c r="C79" s="21" t="s">
         <v>19</v>
       </c>
@@ -6423,8 +6423,8 @@
       </c>
     </row>
     <row r="80" spans="1:14">
-      <c r="A80" s="60"/>
-      <c r="B80" s="63"/>
+      <c r="A80" s="61"/>
+      <c r="B80" s="64"/>
       <c r="C80" s="21" t="s">
         <v>20</v>
       </c>
@@ -6459,8 +6459,8 @@
       </c>
     </row>
     <row r="81" spans="1:14">
-      <c r="A81" s="60"/>
-      <c r="B81" s="63"/>
+      <c r="A81" s="61"/>
+      <c r="B81" s="64"/>
       <c r="C81" s="21" t="s">
         <v>21</v>
       </c>
@@ -6495,8 +6495,8 @@
       </c>
     </row>
     <row r="82" spans="1:14" ht="14.25" thickBot="1">
-      <c r="A82" s="60"/>
-      <c r="B82" s="63"/>
+      <c r="A82" s="61"/>
+      <c r="B82" s="64"/>
       <c r="C82" s="25" t="s">
         <v>22</v>
       </c>
@@ -6531,8 +6531,8 @@
       </c>
     </row>
     <row r="83" spans="1:14" ht="14.25" thickBot="1">
-      <c r="A83" s="61"/>
-      <c r="B83" s="64"/>
+      <c r="A83" s="62"/>
+      <c r="B83" s="65"/>
       <c r="C83" s="31" t="s">
         <v>23</v>
       </c>
@@ -6582,8 +6582,8 @@
       </c>
     </row>
     <row r="84" spans="1:14">
-      <c r="A84" s="59"/>
-      <c r="B84" s="62" t="s">
+      <c r="A84" s="60"/>
+      <c r="B84" s="63" t="s">
         <v>423</v>
       </c>
       <c r="C84" s="17" t="s">
@@ -6620,8 +6620,8 @@
       </c>
     </row>
     <row r="85" spans="1:14">
-      <c r="A85" s="60"/>
-      <c r="B85" s="63"/>
+      <c r="A85" s="61"/>
+      <c r="B85" s="64"/>
       <c r="C85" s="21" t="s">
         <v>16</v>
       </c>
@@ -6655,8 +6655,8 @@
       </c>
     </row>
     <row r="86" spans="1:14">
-      <c r="A86" s="60"/>
-      <c r="B86" s="63"/>
+      <c r="A86" s="61"/>
+      <c r="B86" s="64"/>
       <c r="C86" s="21" t="s">
         <v>17</v>
       </c>
@@ -6691,8 +6691,8 @@
       </c>
     </row>
     <row r="87" spans="1:14">
-      <c r="A87" s="60"/>
-      <c r="B87" s="63"/>
+      <c r="A87" s="61"/>
+      <c r="B87" s="64"/>
       <c r="C87" s="21" t="s">
         <v>18</v>
       </c>
@@ -6727,8 +6727,8 @@
       </c>
     </row>
     <row r="88" spans="1:14">
-      <c r="A88" s="60"/>
-      <c r="B88" s="63"/>
+      <c r="A88" s="61"/>
+      <c r="B88" s="64"/>
       <c r="C88" s="21" t="s">
         <v>19</v>
       </c>
@@ -6763,8 +6763,8 @@
       </c>
     </row>
     <row r="89" spans="1:14">
-      <c r="A89" s="60"/>
-      <c r="B89" s="63"/>
+      <c r="A89" s="61"/>
+      <c r="B89" s="64"/>
       <c r="C89" s="21" t="s">
         <v>20</v>
       </c>
@@ -6799,8 +6799,8 @@
       </c>
     </row>
     <row r="90" spans="1:14">
-      <c r="A90" s="60"/>
-      <c r="B90" s="63"/>
+      <c r="A90" s="61"/>
+      <c r="B90" s="64"/>
       <c r="C90" s="21" t="s">
         <v>21</v>
       </c>
@@ -6835,8 +6835,8 @@
       </c>
     </row>
     <row r="91" spans="1:14" ht="14.25" thickBot="1">
-      <c r="A91" s="60"/>
-      <c r="B91" s="63"/>
+      <c r="A91" s="61"/>
+      <c r="B91" s="64"/>
       <c r="C91" s="25" t="s">
         <v>22</v>
       </c>
@@ -6871,8 +6871,8 @@
       </c>
     </row>
     <row r="92" spans="1:14" ht="14.25" thickBot="1">
-      <c r="A92" s="61"/>
-      <c r="B92" s="64"/>
+      <c r="A92" s="62"/>
+      <c r="B92" s="65"/>
       <c r="C92" s="31" t="s">
         <v>23</v>
       </c>
@@ -6922,8 +6922,8 @@
       </c>
     </row>
     <row r="93" spans="1:14">
-      <c r="A93" s="59"/>
-      <c r="B93" s="62" t="s">
+      <c r="A93" s="60"/>
+      <c r="B93" s="63" t="s">
         <v>424</v>
       </c>
       <c r="C93" s="17" t="s">
@@ -6960,8 +6960,8 @@
       </c>
     </row>
     <row r="94" spans="1:14">
-      <c r="A94" s="60"/>
-      <c r="B94" s="63"/>
+      <c r="A94" s="61"/>
+      <c r="B94" s="64"/>
       <c r="C94" s="21" t="s">
         <v>16</v>
       </c>
@@ -7005,8 +7005,8 @@
       </c>
     </row>
     <row r="95" spans="1:14">
-      <c r="A95" s="60"/>
-      <c r="B95" s="63"/>
+      <c r="A95" s="61"/>
+      <c r="B95" s="64"/>
       <c r="C95" s="21" t="s">
         <v>17</v>
       </c>
@@ -7041,8 +7041,8 @@
       </c>
     </row>
     <row r="96" spans="1:14">
-      <c r="A96" s="60"/>
-      <c r="B96" s="63"/>
+      <c r="A96" s="61"/>
+      <c r="B96" s="64"/>
       <c r="C96" s="21" t="s">
         <v>18</v>
       </c>
@@ -7077,8 +7077,8 @@
       </c>
     </row>
     <row r="97" spans="1:14">
-      <c r="A97" s="60"/>
-      <c r="B97" s="63"/>
+      <c r="A97" s="61"/>
+      <c r="B97" s="64"/>
       <c r="C97" s="21" t="s">
         <v>19</v>
       </c>
@@ -7113,8 +7113,8 @@
       </c>
     </row>
     <row r="98" spans="1:14">
-      <c r="A98" s="60"/>
-      <c r="B98" s="63"/>
+      <c r="A98" s="61"/>
+      <c r="B98" s="64"/>
       <c r="C98" s="21" t="s">
         <v>20</v>
       </c>
@@ -7149,8 +7149,8 @@
       </c>
     </row>
     <row r="99" spans="1:14">
-      <c r="A99" s="60"/>
-      <c r="B99" s="63"/>
+      <c r="A99" s="61"/>
+      <c r="B99" s="64"/>
       <c r="C99" s="21" t="s">
         <v>21</v>
       </c>
@@ -7185,8 +7185,8 @@
       </c>
     </row>
     <row r="100" spans="1:14" ht="14.25" thickBot="1">
-      <c r="A100" s="60"/>
-      <c r="B100" s="63"/>
+      <c r="A100" s="61"/>
+      <c r="B100" s="64"/>
       <c r="C100" s="25" t="s">
         <v>22</v>
       </c>
@@ -7221,8 +7221,8 @@
       </c>
     </row>
     <row r="101" spans="1:14" ht="14.25" thickBot="1">
-      <c r="A101" s="61"/>
-      <c r="B101" s="64"/>
+      <c r="A101" s="62"/>
+      <c r="B101" s="65"/>
       <c r="C101" s="31" t="s">
         <v>23</v>
       </c>
@@ -7272,8 +7272,8 @@
       </c>
     </row>
     <row r="102" spans="1:14">
-      <c r="A102" s="59"/>
-      <c r="B102" s="62" t="s">
+      <c r="A102" s="60"/>
+      <c r="B102" s="63" t="s">
         <v>558</v>
       </c>
       <c r="C102" s="17" t="s">
@@ -7310,8 +7310,8 @@
       </c>
     </row>
     <row r="103" spans="1:14">
-      <c r="A103" s="60"/>
-      <c r="B103" s="63"/>
+      <c r="A103" s="61"/>
+      <c r="B103" s="64"/>
       <c r="C103" s="21" t="s">
         <v>16</v>
       </c>
@@ -7355,8 +7355,8 @@
       </c>
     </row>
     <row r="104" spans="1:14">
-      <c r="A104" s="60"/>
-      <c r="B104" s="63"/>
+      <c r="A104" s="61"/>
+      <c r="B104" s="64"/>
       <c r="C104" s="21" t="s">
         <v>17</v>
       </c>
@@ -7391,8 +7391,8 @@
       </c>
     </row>
     <row r="105" spans="1:14">
-      <c r="A105" s="60"/>
-      <c r="B105" s="63"/>
+      <c r="A105" s="61"/>
+      <c r="B105" s="64"/>
       <c r="C105" s="21" t="s">
         <v>18</v>
       </c>
@@ -7427,8 +7427,8 @@
       </c>
     </row>
     <row r="106" spans="1:14">
-      <c r="A106" s="60"/>
-      <c r="B106" s="63"/>
+      <c r="A106" s="61"/>
+      <c r="B106" s="64"/>
       <c r="C106" s="21" t="s">
         <v>19</v>
       </c>
@@ -7463,8 +7463,8 @@
       </c>
     </row>
     <row r="107" spans="1:14">
-      <c r="A107" s="60"/>
-      <c r="B107" s="63"/>
+      <c r="A107" s="61"/>
+      <c r="B107" s="64"/>
       <c r="C107" s="21" t="s">
         <v>20</v>
       </c>
@@ -7499,8 +7499,8 @@
       </c>
     </row>
     <row r="108" spans="1:14">
-      <c r="A108" s="60"/>
-      <c r="B108" s="63"/>
+      <c r="A108" s="61"/>
+      <c r="B108" s="64"/>
       <c r="C108" s="21" t="s">
         <v>21</v>
       </c>
@@ -7535,8 +7535,8 @@
       </c>
     </row>
     <row r="109" spans="1:14" ht="14.25" thickBot="1">
-      <c r="A109" s="60"/>
-      <c r="B109" s="63"/>
+      <c r="A109" s="61"/>
+      <c r="B109" s="64"/>
       <c r="C109" s="25" t="s">
         <v>22</v>
       </c>
@@ -7571,8 +7571,8 @@
       </c>
     </row>
     <row r="110" spans="1:14" ht="14.25" thickBot="1">
-      <c r="A110" s="61"/>
-      <c r="B110" s="64"/>
+      <c r="A110" s="62"/>
+      <c r="B110" s="65"/>
       <c r="C110" s="31" t="s">
         <v>23</v>
       </c>
@@ -7622,8 +7622,8 @@
       </c>
     </row>
     <row r="111" spans="1:14">
-      <c r="A111" s="59"/>
-      <c r="B111" s="62" t="s">
+      <c r="A111" s="60"/>
+      <c r="B111" s="63" t="s">
         <v>559</v>
       </c>
       <c r="C111" s="17" t="s">
@@ -7660,8 +7660,8 @@
       </c>
     </row>
     <row r="112" spans="1:14">
-      <c r="A112" s="60"/>
-      <c r="B112" s="63"/>
+      <c r="A112" s="61"/>
+      <c r="B112" s="64"/>
       <c r="C112" s="21" t="s">
         <v>16</v>
       </c>
@@ -7703,8 +7703,8 @@
       </c>
     </row>
     <row r="113" spans="1:14">
-      <c r="A113" s="60"/>
-      <c r="B113" s="63"/>
+      <c r="A113" s="61"/>
+      <c r="B113" s="64"/>
       <c r="C113" s="21" t="s">
         <v>17</v>
       </c>
@@ -7739,8 +7739,8 @@
       </c>
     </row>
     <row r="114" spans="1:14">
-      <c r="A114" s="60"/>
-      <c r="B114" s="63"/>
+      <c r="A114" s="61"/>
+      <c r="B114" s="64"/>
       <c r="C114" s="21" t="s">
         <v>18</v>
       </c>
@@ -7775,8 +7775,8 @@
       </c>
     </row>
     <row r="115" spans="1:14">
-      <c r="A115" s="60"/>
-      <c r="B115" s="63"/>
+      <c r="A115" s="61"/>
+      <c r="B115" s="64"/>
       <c r="C115" s="21" t="s">
         <v>19</v>
       </c>
@@ -7811,8 +7811,8 @@
       </c>
     </row>
     <row r="116" spans="1:14">
-      <c r="A116" s="60"/>
-      <c r="B116" s="63"/>
+      <c r="A116" s="61"/>
+      <c r="B116" s="64"/>
       <c r="C116" s="21" t="s">
         <v>20</v>
       </c>
@@ -7847,8 +7847,8 @@
       </c>
     </row>
     <row r="117" spans="1:14">
-      <c r="A117" s="60"/>
-      <c r="B117" s="63"/>
+      <c r="A117" s="61"/>
+      <c r="B117" s="64"/>
       <c r="C117" s="21" t="s">
         <v>21</v>
       </c>
@@ -7883,8 +7883,8 @@
       </c>
     </row>
     <row r="118" spans="1:14" ht="14.25" thickBot="1">
-      <c r="A118" s="60"/>
-      <c r="B118" s="63"/>
+      <c r="A118" s="61"/>
+      <c r="B118" s="64"/>
       <c r="C118" s="25" t="s">
         <v>22</v>
       </c>
@@ -7919,8 +7919,8 @@
       </c>
     </row>
     <row r="119" spans="1:14" ht="14.25" thickBot="1">
-      <c r="A119" s="61"/>
-      <c r="B119" s="64"/>
+      <c r="A119" s="62"/>
+      <c r="B119" s="65"/>
       <c r="C119" s="31" t="s">
         <v>23</v>
       </c>
@@ -7970,8 +7970,8 @@
       </c>
     </row>
     <row r="120" spans="1:14">
-      <c r="A120" s="59"/>
-      <c r="B120" s="62" t="s">
+      <c r="A120" s="60"/>
+      <c r="B120" s="63" t="s">
         <v>562</v>
       </c>
       <c r="C120" s="17" t="s">
@@ -8008,8 +8008,8 @@
       </c>
     </row>
     <row r="121" spans="1:14">
-      <c r="A121" s="60"/>
-      <c r="B121" s="63"/>
+      <c r="A121" s="61"/>
+      <c r="B121" s="64"/>
       <c r="C121" s="21" t="s">
         <v>16</v>
       </c>
@@ -8049,8 +8049,8 @@
       </c>
     </row>
     <row r="122" spans="1:14">
-      <c r="A122" s="60"/>
-      <c r="B122" s="63"/>
+      <c r="A122" s="61"/>
+      <c r="B122" s="64"/>
       <c r="C122" s="21" t="s">
         <v>17</v>
       </c>
@@ -8085,8 +8085,8 @@
       </c>
     </row>
     <row r="123" spans="1:14">
-      <c r="A123" s="60"/>
-      <c r="B123" s="63"/>
+      <c r="A123" s="61"/>
+      <c r="B123" s="64"/>
       <c r="C123" s="21" t="s">
         <v>18</v>
       </c>
@@ -8121,8 +8121,8 @@
       </c>
     </row>
     <row r="124" spans="1:14">
-      <c r="A124" s="60"/>
-      <c r="B124" s="63"/>
+      <c r="A124" s="61"/>
+      <c r="B124" s="64"/>
       <c r="C124" s="21" t="s">
         <v>19</v>
       </c>
@@ -8157,8 +8157,8 @@
       </c>
     </row>
     <row r="125" spans="1:14">
-      <c r="A125" s="60"/>
-      <c r="B125" s="63"/>
+      <c r="A125" s="61"/>
+      <c r="B125" s="64"/>
       <c r="C125" s="21" t="s">
         <v>20</v>
       </c>
@@ -8193,8 +8193,8 @@
       </c>
     </row>
     <row r="126" spans="1:14">
-      <c r="A126" s="60"/>
-      <c r="B126" s="63"/>
+      <c r="A126" s="61"/>
+      <c r="B126" s="64"/>
       <c r="C126" s="21" t="s">
         <v>21</v>
       </c>
@@ -8229,8 +8229,8 @@
       </c>
     </row>
     <row r="127" spans="1:14" ht="14.25" thickBot="1">
-      <c r="A127" s="60"/>
-      <c r="B127" s="63"/>
+      <c r="A127" s="61"/>
+      <c r="B127" s="64"/>
       <c r="C127" s="25" t="s">
         <v>22</v>
       </c>
@@ -8265,8 +8265,8 @@
       </c>
     </row>
     <row r="128" spans="1:14" ht="14.25" thickBot="1">
-      <c r="A128" s="61"/>
-      <c r="B128" s="64"/>
+      <c r="A128" s="62"/>
+      <c r="B128" s="65"/>
       <c r="C128" s="31" t="s">
         <v>23</v>
       </c>
@@ -8317,11 +8317,17 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="A120:A128"/>
-    <mergeCell ref="B120:B128"/>
-    <mergeCell ref="B84:B92"/>
-    <mergeCell ref="A93:A101"/>
-    <mergeCell ref="B93:B101"/>
+    <mergeCell ref="A39:A47"/>
+    <mergeCell ref="B39:B47"/>
+    <mergeCell ref="A30:A38"/>
+    <mergeCell ref="B30:B38"/>
+    <mergeCell ref="A21:A29"/>
+    <mergeCell ref="B21:B29"/>
+    <mergeCell ref="A1:Q1"/>
+    <mergeCell ref="A3:A11"/>
+    <mergeCell ref="B3:B11"/>
+    <mergeCell ref="A12:A20"/>
+    <mergeCell ref="B12:B20"/>
     <mergeCell ref="A48:A56"/>
     <mergeCell ref="B48:B56"/>
     <mergeCell ref="A66:A74"/>
@@ -8330,21 +8336,15 @@
     <mergeCell ref="B75:B83"/>
     <mergeCell ref="A57:A65"/>
     <mergeCell ref="B57:B65"/>
+    <mergeCell ref="A120:A128"/>
+    <mergeCell ref="B120:B128"/>
+    <mergeCell ref="B84:B92"/>
+    <mergeCell ref="A93:A101"/>
+    <mergeCell ref="B93:B101"/>
     <mergeCell ref="A111:A119"/>
     <mergeCell ref="B111:B119"/>
     <mergeCell ref="B102:B110"/>
     <mergeCell ref="A102:A110"/>
-    <mergeCell ref="A1:Q1"/>
-    <mergeCell ref="A3:A11"/>
-    <mergeCell ref="B3:B11"/>
-    <mergeCell ref="A12:A20"/>
-    <mergeCell ref="B12:B20"/>
-    <mergeCell ref="A39:A47"/>
-    <mergeCell ref="B39:B47"/>
-    <mergeCell ref="A30:A38"/>
-    <mergeCell ref="B30:B38"/>
-    <mergeCell ref="A21:A29"/>
-    <mergeCell ref="B21:B29"/>
     <mergeCell ref="A84:A92"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
@@ -8356,7 +8356,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N606"/>
   <sheetViews>
-    <sheetView topLeftCell="A290" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A278" workbookViewId="0">
       <selection activeCell="F311" sqref="F311"/>
     </sheetView>
   </sheetViews>
@@ -8420,7 +8420,7 @@
       </c>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="71">
+      <c r="A2" s="72">
         <v>32</v>
       </c>
       <c r="B2" s="55">
@@ -8464,7 +8464,7 @@
       </c>
     </row>
     <row r="3" spans="1:14">
-      <c r="A3" s="72"/>
+      <c r="A3" s="73"/>
       <c r="B3" s="55">
         <v>42951</v>
       </c>
@@ -8506,7 +8506,7 @@
       </c>
     </row>
     <row r="4" spans="1:14">
-      <c r="A4" s="72"/>
+      <c r="A4" s="73"/>
       <c r="B4" s="55">
         <v>42951</v>
       </c>
@@ -8548,7 +8548,7 @@
       </c>
     </row>
     <row r="5" spans="1:14">
-      <c r="A5" s="72"/>
+      <c r="A5" s="73"/>
       <c r="B5" s="55">
         <v>42951</v>
       </c>
@@ -8590,7 +8590,7 @@
       </c>
     </row>
     <row r="6" spans="1:14">
-      <c r="A6" s="72"/>
+      <c r="A6" s="73"/>
       <c r="B6" s="55">
         <v>42951</v>
       </c>
@@ -8632,7 +8632,7 @@
       </c>
     </row>
     <row r="7" spans="1:14">
-      <c r="A7" s="72"/>
+      <c r="A7" s="73"/>
       <c r="B7" s="55">
         <v>42951</v>
       </c>
@@ -8674,7 +8674,7 @@
       </c>
     </row>
     <row r="8" spans="1:14">
-      <c r="A8" s="72"/>
+      <c r="A8" s="73"/>
       <c r="B8" s="55">
         <v>42951</v>
       </c>
@@ -8716,7 +8716,7 @@
       </c>
     </row>
     <row r="9" spans="1:14">
-      <c r="A9" s="72"/>
+      <c r="A9" s="73"/>
       <c r="B9" s="55">
         <v>42951</v>
       </c>
@@ -8758,7 +8758,7 @@
       </c>
     </row>
     <row r="10" spans="1:14">
-      <c r="A10" s="72"/>
+      <c r="A10" s="73"/>
       <c r="B10" s="55">
         <v>42951</v>
       </c>
@@ -8800,7 +8800,7 @@
       </c>
     </row>
     <row r="11" spans="1:14">
-      <c r="A11" s="72"/>
+      <c r="A11" s="73"/>
       <c r="B11" s="55">
         <v>42951</v>
       </c>
@@ -8842,7 +8842,7 @@
       </c>
     </row>
     <row r="12" spans="1:14">
-      <c r="A12" s="72"/>
+      <c r="A12" s="73"/>
       <c r="B12" s="55">
         <v>42951</v>
       </c>
@@ -8884,7 +8884,7 @@
       </c>
     </row>
     <row r="13" spans="1:14">
-      <c r="A13" s="72"/>
+      <c r="A13" s="73"/>
       <c r="B13" s="55">
         <v>42951</v>
       </c>
@@ -8926,7 +8926,7 @@
       </c>
     </row>
     <row r="14" spans="1:14">
-      <c r="A14" s="72"/>
+      <c r="A14" s="73"/>
       <c r="B14" s="55">
         <v>42951</v>
       </c>
@@ -8968,7 +8968,7 @@
       </c>
     </row>
     <row r="15" spans="1:14">
-      <c r="A15" s="72"/>
+      <c r="A15" s="73"/>
       <c r="B15" s="55">
         <v>42951</v>
       </c>
@@ -9010,7 +9010,7 @@
       </c>
     </row>
     <row r="16" spans="1:14">
-      <c r="A16" s="73"/>
+      <c r="A16" s="74"/>
       <c r="B16" s="55">
         <v>42951</v>
       </c>
@@ -9052,7 +9052,7 @@
       </c>
     </row>
     <row r="17" spans="1:14">
-      <c r="A17" s="68">
+      <c r="A17" s="69">
         <v>33</v>
       </c>
       <c r="B17" s="55">
@@ -9096,7 +9096,7 @@
       </c>
     </row>
     <row r="18" spans="1:14">
-      <c r="A18" s="69"/>
+      <c r="A18" s="70"/>
       <c r="B18" s="55">
         <v>42962</v>
       </c>
@@ -9138,7 +9138,7 @@
       </c>
     </row>
     <row r="19" spans="1:14">
-      <c r="A19" s="69"/>
+      <c r="A19" s="70"/>
       <c r="B19" s="55">
         <v>42962</v>
       </c>
@@ -9180,7 +9180,7 @@
       </c>
     </row>
     <row r="20" spans="1:14">
-      <c r="A20" s="69"/>
+      <c r="A20" s="70"/>
       <c r="B20" s="55">
         <v>42962</v>
       </c>
@@ -9222,7 +9222,7 @@
       </c>
     </row>
     <row r="21" spans="1:14">
-      <c r="A21" s="69"/>
+      <c r="A21" s="70"/>
       <c r="B21" s="55">
         <v>42962</v>
       </c>
@@ -9264,7 +9264,7 @@
       </c>
     </row>
     <row r="22" spans="1:14">
-      <c r="A22" s="69"/>
+      <c r="A22" s="70"/>
       <c r="B22" s="55">
         <v>42962</v>
       </c>
@@ -9306,7 +9306,7 @@
       </c>
     </row>
     <row r="23" spans="1:14">
-      <c r="A23" s="69"/>
+      <c r="A23" s="70"/>
       <c r="B23" s="55">
         <v>42962</v>
       </c>
@@ -9348,7 +9348,7 @@
       </c>
     </row>
     <row r="24" spans="1:14">
-      <c r="A24" s="69"/>
+      <c r="A24" s="70"/>
       <c r="B24" s="55">
         <v>42962</v>
       </c>
@@ -9390,7 +9390,7 @@
       </c>
     </row>
     <row r="25" spans="1:14">
-      <c r="A25" s="69"/>
+      <c r="A25" s="70"/>
       <c r="B25" s="55">
         <v>42962</v>
       </c>
@@ -9432,7 +9432,7 @@
       </c>
     </row>
     <row r="26" spans="1:14">
-      <c r="A26" s="69"/>
+      <c r="A26" s="70"/>
       <c r="B26" s="55">
         <v>42962</v>
       </c>
@@ -9474,7 +9474,7 @@
       </c>
     </row>
     <row r="27" spans="1:14">
-      <c r="A27" s="69"/>
+      <c r="A27" s="70"/>
       <c r="B27" s="55">
         <v>42962</v>
       </c>
@@ -9516,7 +9516,7 @@
       </c>
     </row>
     <row r="28" spans="1:14">
-      <c r="A28" s="69"/>
+      <c r="A28" s="70"/>
       <c r="B28" s="55">
         <v>42962</v>
       </c>
@@ -9558,7 +9558,7 @@
       </c>
     </row>
     <row r="29" spans="1:14">
-      <c r="A29" s="69"/>
+      <c r="A29" s="70"/>
       <c r="B29" s="55">
         <v>42962</v>
       </c>
@@ -9600,7 +9600,7 @@
       </c>
     </row>
     <row r="30" spans="1:14">
-      <c r="A30" s="69"/>
+      <c r="A30" s="70"/>
       <c r="B30" s="55">
         <v>42962</v>
       </c>
@@ -9642,7 +9642,7 @@
       </c>
     </row>
     <row r="31" spans="1:14">
-      <c r="A31" s="69"/>
+      <c r="A31" s="70"/>
       <c r="B31" s="55">
         <v>42962</v>
       </c>
@@ -9684,7 +9684,7 @@
       </c>
     </row>
     <row r="32" spans="1:14">
-      <c r="A32" s="69"/>
+      <c r="A32" s="70"/>
       <c r="B32" s="55">
         <v>42962</v>
       </c>
@@ -9726,7 +9726,7 @@
       </c>
     </row>
     <row r="33" spans="1:14">
-      <c r="A33" s="69"/>
+      <c r="A33" s="70"/>
       <c r="B33" s="55">
         <v>42962</v>
       </c>
@@ -9768,7 +9768,7 @@
       </c>
     </row>
     <row r="34" spans="1:14">
-      <c r="A34" s="69"/>
+      <c r="A34" s="70"/>
       <c r="B34" s="55">
         <v>42962</v>
       </c>
@@ -9810,7 +9810,7 @@
       </c>
     </row>
     <row r="35" spans="1:14">
-      <c r="A35" s="69"/>
+      <c r="A35" s="70"/>
       <c r="B35" s="55">
         <v>42962</v>
       </c>
@@ -9852,7 +9852,7 @@
       </c>
     </row>
     <row r="36" spans="1:14">
-      <c r="A36" s="69"/>
+      <c r="A36" s="70"/>
       <c r="B36" s="55">
         <v>42962</v>
       </c>
@@ -9894,7 +9894,7 @@
       </c>
     </row>
     <row r="37" spans="1:14">
-      <c r="A37" s="69"/>
+      <c r="A37" s="70"/>
       <c r="B37" s="55">
         <v>42962</v>
       </c>
@@ -9936,7 +9936,7 @@
       </c>
     </row>
     <row r="38" spans="1:14">
-      <c r="A38" s="69"/>
+      <c r="A38" s="70"/>
       <c r="B38" s="55">
         <v>42962</v>
       </c>
@@ -9978,7 +9978,7 @@
       </c>
     </row>
     <row r="39" spans="1:14">
-      <c r="A39" s="69"/>
+      <c r="A39" s="70"/>
       <c r="B39" s="55">
         <v>42962</v>
       </c>
@@ -10020,7 +10020,7 @@
       </c>
     </row>
     <row r="40" spans="1:14">
-      <c r="A40" s="69"/>
+      <c r="A40" s="70"/>
       <c r="B40" s="55">
         <v>42962</v>
       </c>
@@ -10062,7 +10062,7 @@
       </c>
     </row>
     <row r="41" spans="1:14">
-      <c r="A41" s="69"/>
+      <c r="A41" s="70"/>
       <c r="B41" s="55">
         <v>42962</v>
       </c>
@@ -10104,7 +10104,7 @@
       </c>
     </row>
     <row r="42" spans="1:14">
-      <c r="A42" s="69"/>
+      <c r="A42" s="70"/>
       <c r="B42" s="55">
         <v>42962</v>
       </c>
@@ -10146,7 +10146,7 @@
       </c>
     </row>
     <row r="43" spans="1:14">
-      <c r="A43" s="69"/>
+      <c r="A43" s="70"/>
       <c r="B43" s="55">
         <v>42962</v>
       </c>
@@ -10188,7 +10188,7 @@
       </c>
     </row>
     <row r="44" spans="1:14">
-      <c r="A44" s="69"/>
+      <c r="A44" s="70"/>
       <c r="B44" s="55">
         <v>42962</v>
       </c>
@@ -10230,7 +10230,7 @@
       </c>
     </row>
     <row r="45" spans="1:14">
-      <c r="A45" s="70"/>
+      <c r="A45" s="71"/>
       <c r="B45" s="55">
         <v>42962</v>
       </c>
@@ -10272,7 +10272,7 @@
       </c>
     </row>
     <row r="46" spans="1:14">
-      <c r="A46" s="68">
+      <c r="A46" s="69">
         <v>35</v>
       </c>
       <c r="B46" s="55">
@@ -10316,7 +10316,7 @@
       </c>
     </row>
     <row r="47" spans="1:14">
-      <c r="A47" s="69"/>
+      <c r="A47" s="70"/>
       <c r="B47" s="55">
         <v>42972</v>
       </c>
@@ -10358,7 +10358,7 @@
       </c>
     </row>
     <row r="48" spans="1:14">
-      <c r="A48" s="69"/>
+      <c r="A48" s="70"/>
       <c r="B48" s="55">
         <v>42972</v>
       </c>
@@ -10400,7 +10400,7 @@
       </c>
     </row>
     <row r="49" spans="1:14">
-      <c r="A49" s="69"/>
+      <c r="A49" s="70"/>
       <c r="B49" s="55">
         <v>42972</v>
       </c>
@@ -10442,7 +10442,7 @@
       </c>
     </row>
     <row r="50" spans="1:14">
-      <c r="A50" s="69"/>
+      <c r="A50" s="70"/>
       <c r="B50" s="55">
         <v>42972</v>
       </c>
@@ -10484,7 +10484,7 @@
       </c>
     </row>
     <row r="51" spans="1:14">
-      <c r="A51" s="69"/>
+      <c r="A51" s="70"/>
       <c r="B51" s="55">
         <v>42972</v>
       </c>
@@ -10526,7 +10526,7 @@
       </c>
     </row>
     <row r="52" spans="1:14">
-      <c r="A52" s="69"/>
+      <c r="A52" s="70"/>
       <c r="B52" s="55">
         <v>42972</v>
       </c>
@@ -10568,7 +10568,7 @@
       </c>
     </row>
     <row r="53" spans="1:14">
-      <c r="A53" s="74"/>
+      <c r="A53" s="75"/>
       <c r="B53" s="55">
         <v>42972</v>
       </c>
@@ -10610,7 +10610,7 @@
       </c>
     </row>
     <row r="54" spans="1:14">
-      <c r="A54" s="74"/>
+      <c r="A54" s="75"/>
       <c r="B54" s="55">
         <v>42972</v>
       </c>
@@ -10652,7 +10652,7 @@
       </c>
     </row>
     <row r="55" spans="1:14">
-      <c r="A55" s="74"/>
+      <c r="A55" s="75"/>
       <c r="B55" s="55">
         <v>42972</v>
       </c>
@@ -10694,7 +10694,7 @@
       </c>
     </row>
     <row r="56" spans="1:14">
-      <c r="A56" s="74"/>
+      <c r="A56" s="75"/>
       <c r="B56" s="55">
         <v>42972</v>
       </c>
@@ -10736,7 +10736,7 @@
       </c>
     </row>
     <row r="57" spans="1:14">
-      <c r="A57" s="74"/>
+      <c r="A57" s="75"/>
       <c r="B57" s="55">
         <v>42972</v>
       </c>
@@ -10778,7 +10778,7 @@
       </c>
     </row>
     <row r="58" spans="1:14">
-      <c r="A58" s="74"/>
+      <c r="A58" s="75"/>
       <c r="B58" s="55">
         <v>42972</v>
       </c>
@@ -10820,7 +10820,7 @@
       </c>
     </row>
     <row r="59" spans="1:14">
-      <c r="A59" s="74"/>
+      <c r="A59" s="75"/>
       <c r="B59" s="55">
         <v>42972</v>
       </c>
@@ -10862,7 +10862,7 @@
       </c>
     </row>
     <row r="60" spans="1:14">
-      <c r="A60" s="74"/>
+      <c r="A60" s="75"/>
       <c r="B60" s="55">
         <v>42972</v>
       </c>
@@ -10904,7 +10904,7 @@
       </c>
     </row>
     <row r="61" spans="1:14">
-      <c r="A61" s="74"/>
+      <c r="A61" s="75"/>
       <c r="B61" s="55">
         <v>42972</v>
       </c>
@@ -10946,7 +10946,7 @@
       </c>
     </row>
     <row r="62" spans="1:14">
-      <c r="A62" s="74"/>
+      <c r="A62" s="75"/>
       <c r="B62" s="55">
         <v>42972</v>
       </c>
@@ -10988,7 +10988,7 @@
       </c>
     </row>
     <row r="63" spans="1:14">
-      <c r="A63" s="74"/>
+      <c r="A63" s="75"/>
       <c r="B63" s="55">
         <v>42972</v>
       </c>
@@ -11030,7 +11030,7 @@
       </c>
     </row>
     <row r="64" spans="1:14">
-      <c r="A64" s="74"/>
+      <c r="A64" s="75"/>
       <c r="B64" s="55">
         <v>42972</v>
       </c>
@@ -11072,7 +11072,7 @@
       </c>
     </row>
     <row r="65" spans="1:14">
-      <c r="A65" s="74"/>
+      <c r="A65" s="75"/>
       <c r="B65" s="55">
         <v>42972</v>
       </c>
@@ -11114,7 +11114,7 @@
       </c>
     </row>
     <row r="66" spans="1:14">
-      <c r="A66" s="74"/>
+      <c r="A66" s="75"/>
       <c r="B66" s="55">
         <v>42972</v>
       </c>
@@ -11156,7 +11156,7 @@
       </c>
     </row>
     <row r="67" spans="1:14">
-      <c r="A67" s="74"/>
+      <c r="A67" s="75"/>
       <c r="B67" s="55">
         <v>42972</v>
       </c>
@@ -11198,7 +11198,7 @@
       </c>
     </row>
     <row r="68" spans="1:14">
-      <c r="A68" s="74"/>
+      <c r="A68" s="75"/>
       <c r="B68" s="55">
         <v>42972</v>
       </c>
@@ -11240,7 +11240,7 @@
       </c>
     </row>
     <row r="69" spans="1:14">
-      <c r="A69" s="74"/>
+      <c r="A69" s="75"/>
       <c r="B69" s="55">
         <v>42972</v>
       </c>
@@ -11282,7 +11282,7 @@
       </c>
     </row>
     <row r="70" spans="1:14">
-      <c r="A70" s="74"/>
+      <c r="A70" s="75"/>
       <c r="B70" s="55">
         <v>42972</v>
       </c>
@@ -11324,7 +11324,7 @@
       </c>
     </row>
     <row r="71" spans="1:14">
-      <c r="A71" s="74"/>
+      <c r="A71" s="75"/>
       <c r="B71" s="55">
         <v>42972</v>
       </c>
@@ -11366,7 +11366,7 @@
       </c>
     </row>
     <row r="72" spans="1:14">
-      <c r="A72" s="74"/>
+      <c r="A72" s="75"/>
       <c r="B72" s="55">
         <v>42972</v>
       </c>
@@ -11408,7 +11408,7 @@
       </c>
     </row>
     <row r="73" spans="1:14">
-      <c r="A73" s="74"/>
+      <c r="A73" s="75"/>
       <c r="B73" s="55">
         <v>42972</v>
       </c>
@@ -11450,7 +11450,7 @@
       </c>
     </row>
     <row r="74" spans="1:14">
-      <c r="A74" s="74"/>
+      <c r="A74" s="75"/>
       <c r="B74" s="55">
         <v>42972</v>
       </c>
@@ -11492,7 +11492,7 @@
       </c>
     </row>
     <row r="75" spans="1:14">
-      <c r="A75" s="74"/>
+      <c r="A75" s="75"/>
       <c r="B75" s="55">
         <v>42972</v>
       </c>
@@ -11534,7 +11534,7 @@
       </c>
     </row>
     <row r="76" spans="1:14">
-      <c r="A76" s="74"/>
+      <c r="A76" s="75"/>
       <c r="B76" s="55">
         <v>42972</v>
       </c>
@@ -11576,7 +11576,7 @@
       </c>
     </row>
     <row r="77" spans="1:14">
-      <c r="A77" s="74"/>
+      <c r="A77" s="75"/>
       <c r="B77" s="55">
         <v>42972</v>
       </c>
@@ -11618,7 +11618,7 @@
       </c>
     </row>
     <row r="78" spans="1:14">
-      <c r="A78" s="74"/>
+      <c r="A78" s="75"/>
       <c r="B78" s="55">
         <v>42972</v>
       </c>
@@ -11660,7 +11660,7 @@
       </c>
     </row>
     <row r="79" spans="1:14">
-      <c r="A79" s="75"/>
+      <c r="A79" s="76"/>
       <c r="B79" s="55">
         <v>42972</v>
       </c>
@@ -11702,7 +11702,7 @@
       </c>
     </row>
     <row r="80" spans="1:14">
-      <c r="A80" s="68">
+      <c r="A80" s="69">
         <v>36</v>
       </c>
       <c r="B80" s="55">
@@ -11746,7 +11746,7 @@
       </c>
     </row>
     <row r="81" spans="1:14">
-      <c r="A81" s="69"/>
+      <c r="A81" s="70"/>
       <c r="B81" s="55">
         <v>42979</v>
       </c>
@@ -11788,7 +11788,7 @@
       </c>
     </row>
     <row r="82" spans="1:14">
-      <c r="A82" s="69"/>
+      <c r="A82" s="70"/>
       <c r="B82" s="55">
         <v>42979</v>
       </c>
@@ -11830,7 +11830,7 @@
       </c>
     </row>
     <row r="83" spans="1:14">
-      <c r="A83" s="69"/>
+      <c r="A83" s="70"/>
       <c r="B83" s="55">
         <v>42979</v>
       </c>
@@ -11872,7 +11872,7 @@
       </c>
     </row>
     <row r="84" spans="1:14">
-      <c r="A84" s="69"/>
+      <c r="A84" s="70"/>
       <c r="B84" s="55">
         <v>42979</v>
       </c>
@@ -11914,7 +11914,7 @@
       </c>
     </row>
     <row r="85" spans="1:14">
-      <c r="A85" s="69"/>
+      <c r="A85" s="70"/>
       <c r="B85" s="55">
         <v>42979</v>
       </c>
@@ -11956,7 +11956,7 @@
       </c>
     </row>
     <row r="86" spans="1:14">
-      <c r="A86" s="69"/>
+      <c r="A86" s="70"/>
       <c r="B86" s="55">
         <v>42979</v>
       </c>
@@ -11998,7 +11998,7 @@
       </c>
     </row>
     <row r="87" spans="1:14">
-      <c r="A87" s="69"/>
+      <c r="A87" s="70"/>
       <c r="B87" s="55">
         <v>42979</v>
       </c>
@@ -12040,7 +12040,7 @@
       </c>
     </row>
     <row r="88" spans="1:14">
-      <c r="A88" s="69"/>
+      <c r="A88" s="70"/>
       <c r="B88" s="55">
         <v>42979</v>
       </c>
@@ -12082,7 +12082,7 @@
       </c>
     </row>
     <row r="89" spans="1:14">
-      <c r="A89" s="69"/>
+      <c r="A89" s="70"/>
       <c r="B89" s="55">
         <v>42979</v>
       </c>
@@ -12124,7 +12124,7 @@
       </c>
     </row>
     <row r="90" spans="1:14">
-      <c r="A90" s="69"/>
+      <c r="A90" s="70"/>
       <c r="B90" s="55">
         <v>42979</v>
       </c>
@@ -12166,7 +12166,7 @@
       </c>
     </row>
     <row r="91" spans="1:14">
-      <c r="A91" s="69"/>
+      <c r="A91" s="70"/>
       <c r="B91" s="55">
         <v>42979</v>
       </c>
@@ -12208,7 +12208,7 @@
       </c>
     </row>
     <row r="92" spans="1:14">
-      <c r="A92" s="69"/>
+      <c r="A92" s="70"/>
       <c r="B92" s="55">
         <v>42979</v>
       </c>
@@ -12250,7 +12250,7 @@
       </c>
     </row>
     <row r="93" spans="1:14">
-      <c r="A93" s="70"/>
+      <c r="A93" s="71"/>
       <c r="B93" s="55">
         <v>42979</v>
       </c>
@@ -12292,7 +12292,7 @@
       </c>
     </row>
     <row r="94" spans="1:14">
-      <c r="A94" s="68">
+      <c r="A94" s="69">
         <v>37</v>
       </c>
       <c r="B94" s="55">
@@ -12336,7 +12336,7 @@
       </c>
     </row>
     <row r="95" spans="1:14">
-      <c r="A95" s="69"/>
+      <c r="A95" s="70"/>
       <c r="B95" s="55">
         <v>42986</v>
       </c>
@@ -12378,7 +12378,7 @@
       </c>
     </row>
     <row r="96" spans="1:14">
-      <c r="A96" s="69"/>
+      <c r="A96" s="70"/>
       <c r="B96" s="55">
         <v>42986</v>
       </c>
@@ -12420,7 +12420,7 @@
       </c>
     </row>
     <row r="97" spans="1:14">
-      <c r="A97" s="69"/>
+      <c r="A97" s="70"/>
       <c r="B97" s="55">
         <v>42986</v>
       </c>
@@ -12462,7 +12462,7 @@
       </c>
     </row>
     <row r="98" spans="1:14">
-      <c r="A98" s="69"/>
+      <c r="A98" s="70"/>
       <c r="B98" s="55">
         <v>42986</v>
       </c>
@@ -12504,7 +12504,7 @@
       </c>
     </row>
     <row r="99" spans="1:14">
-      <c r="A99" s="69"/>
+      <c r="A99" s="70"/>
       <c r="B99" s="55">
         <v>42986</v>
       </c>
@@ -12546,7 +12546,7 @@
       </c>
     </row>
     <row r="100" spans="1:14">
-      <c r="A100" s="69"/>
+      <c r="A100" s="70"/>
       <c r="B100" s="55">
         <v>42986</v>
       </c>
@@ -12588,7 +12588,7 @@
       </c>
     </row>
     <row r="101" spans="1:14">
-      <c r="A101" s="69"/>
+      <c r="A101" s="70"/>
       <c r="B101" s="55">
         <v>42986</v>
       </c>
@@ -12630,7 +12630,7 @@
       </c>
     </row>
     <row r="102" spans="1:14">
-      <c r="A102" s="69"/>
+      <c r="A102" s="70"/>
       <c r="B102" s="55">
         <v>42986</v>
       </c>
@@ -12672,7 +12672,7 @@
       </c>
     </row>
     <row r="103" spans="1:14">
-      <c r="A103" s="69"/>
+      <c r="A103" s="70"/>
       <c r="B103" s="55">
         <v>42986</v>
       </c>
@@ -12714,7 +12714,7 @@
       </c>
     </row>
     <row r="104" spans="1:14">
-      <c r="A104" s="69"/>
+      <c r="A104" s="70"/>
       <c r="B104" s="55">
         <v>42986</v>
       </c>
@@ -12756,7 +12756,7 @@
       </c>
     </row>
     <row r="105" spans="1:14">
-      <c r="A105" s="69"/>
+      <c r="A105" s="70"/>
       <c r="B105" s="55">
         <v>42986</v>
       </c>
@@ -12798,7 +12798,7 @@
       </c>
     </row>
     <row r="106" spans="1:14">
-      <c r="A106" s="69"/>
+      <c r="A106" s="70"/>
       <c r="B106" s="55">
         <v>42986</v>
       </c>
@@ -12840,7 +12840,7 @@
       </c>
     </row>
     <row r="107" spans="1:14">
-      <c r="A107" s="69"/>
+      <c r="A107" s="70"/>
       <c r="B107" s="55">
         <v>42986</v>
       </c>
@@ -12882,7 +12882,7 @@
       </c>
     </row>
     <row r="108" spans="1:14">
-      <c r="A108" s="69"/>
+      <c r="A108" s="70"/>
       <c r="B108" s="55">
         <v>42986</v>
       </c>
@@ -12924,7 +12924,7 @@
       </c>
     </row>
     <row r="109" spans="1:14">
-      <c r="A109" s="69"/>
+      <c r="A109" s="70"/>
       <c r="B109" s="55">
         <v>42986</v>
       </c>
@@ -12966,7 +12966,7 @@
       </c>
     </row>
     <row r="110" spans="1:14">
-      <c r="A110" s="69"/>
+      <c r="A110" s="70"/>
       <c r="B110" s="55">
         <v>42986</v>
       </c>
@@ -13008,7 +13008,7 @@
       </c>
     </row>
     <row r="111" spans="1:14">
-      <c r="A111" s="69"/>
+      <c r="A111" s="70"/>
       <c r="B111" s="55">
         <v>42986</v>
       </c>
@@ -13050,7 +13050,7 @@
       </c>
     </row>
     <row r="112" spans="1:14">
-      <c r="A112" s="69"/>
+      <c r="A112" s="70"/>
       <c r="B112" s="55">
         <v>42986</v>
       </c>
@@ -13092,7 +13092,7 @@
       </c>
     </row>
     <row r="113" spans="1:14">
-      <c r="A113" s="69"/>
+      <c r="A113" s="70"/>
       <c r="B113" s="55">
         <v>42986</v>
       </c>
@@ -13134,7 +13134,7 @@
       </c>
     </row>
     <row r="114" spans="1:14">
-      <c r="A114" s="70"/>
+      <c r="A114" s="71"/>
       <c r="B114" s="55">
         <v>42986</v>
       </c>
@@ -13176,7 +13176,7 @@
       </c>
     </row>
     <row r="115" spans="1:14">
-      <c r="A115" s="68">
+      <c r="A115" s="69">
         <v>38</v>
       </c>
       <c r="B115" s="55">
@@ -13220,7 +13220,7 @@
       </c>
     </row>
     <row r="116" spans="1:14">
-      <c r="A116" s="69"/>
+      <c r="A116" s="70"/>
       <c r="B116" s="55">
         <v>42996</v>
       </c>
@@ -13262,7 +13262,7 @@
       </c>
     </row>
     <row r="117" spans="1:14">
-      <c r="A117" s="69"/>
+      <c r="A117" s="70"/>
       <c r="B117" s="55">
         <v>42996</v>
       </c>
@@ -13304,7 +13304,7 @@
       </c>
     </row>
     <row r="118" spans="1:14">
-      <c r="A118" s="69"/>
+      <c r="A118" s="70"/>
       <c r="B118" s="55">
         <v>42996</v>
       </c>
@@ -13346,7 +13346,7 @@
       </c>
     </row>
     <row r="119" spans="1:14">
-      <c r="A119" s="69"/>
+      <c r="A119" s="70"/>
       <c r="B119" s="55">
         <v>42996</v>
       </c>
@@ -13388,7 +13388,7 @@
       </c>
     </row>
     <row r="120" spans="1:14">
-      <c r="A120" s="69"/>
+      <c r="A120" s="70"/>
       <c r="B120" s="55">
         <v>42996</v>
       </c>
@@ -13430,7 +13430,7 @@
       </c>
     </row>
     <row r="121" spans="1:14">
-      <c r="A121" s="69"/>
+      <c r="A121" s="70"/>
       <c r="B121" s="55">
         <v>42996</v>
       </c>
@@ -13472,7 +13472,7 @@
       </c>
     </row>
     <row r="122" spans="1:14">
-      <c r="A122" s="69"/>
+      <c r="A122" s="70"/>
       <c r="B122" s="55">
         <v>42996</v>
       </c>
@@ -13514,7 +13514,7 @@
       </c>
     </row>
     <row r="123" spans="1:14">
-      <c r="A123" s="69"/>
+      <c r="A123" s="70"/>
       <c r="B123" s="55">
         <v>42996</v>
       </c>
@@ -13556,7 +13556,7 @@
       </c>
     </row>
     <row r="124" spans="1:14">
-      <c r="A124" s="69"/>
+      <c r="A124" s="70"/>
       <c r="B124" s="55">
         <v>42996</v>
       </c>
@@ -13598,7 +13598,7 @@
       </c>
     </row>
     <row r="125" spans="1:14">
-      <c r="A125" s="69"/>
+      <c r="A125" s="70"/>
       <c r="B125" s="55">
         <v>42996</v>
       </c>
@@ -13640,7 +13640,7 @@
       </c>
     </row>
     <row r="126" spans="1:14">
-      <c r="A126" s="69"/>
+      <c r="A126" s="70"/>
       <c r="B126" s="55">
         <v>42996</v>
       </c>
@@ -13682,7 +13682,7 @@
       </c>
     </row>
     <row r="127" spans="1:14">
-      <c r="A127" s="69"/>
+      <c r="A127" s="70"/>
       <c r="B127" s="55">
         <v>42996</v>
       </c>
@@ -13724,7 +13724,7 @@
       </c>
     </row>
     <row r="128" spans="1:14">
-      <c r="A128" s="69"/>
+      <c r="A128" s="70"/>
       <c r="B128" s="55">
         <v>42996</v>
       </c>
@@ -13766,7 +13766,7 @@
       </c>
     </row>
     <row r="129" spans="1:14">
-      <c r="A129" s="69"/>
+      <c r="A129" s="70"/>
       <c r="B129" s="55">
         <v>42996</v>
       </c>
@@ -13808,7 +13808,7 @@
       </c>
     </row>
     <row r="130" spans="1:14">
-      <c r="A130" s="69"/>
+      <c r="A130" s="70"/>
       <c r="B130" s="55">
         <v>42996</v>
       </c>
@@ -13850,7 +13850,7 @@
       </c>
     </row>
     <row r="131" spans="1:14">
-      <c r="A131" s="69"/>
+      <c r="A131" s="70"/>
       <c r="B131" s="55">
         <v>42996</v>
       </c>
@@ -13892,7 +13892,7 @@
       </c>
     </row>
     <row r="132" spans="1:14">
-      <c r="A132" s="69"/>
+      <c r="A132" s="70"/>
       <c r="B132" s="55">
         <v>42996</v>
       </c>
@@ -13934,7 +13934,7 @@
       </c>
     </row>
     <row r="133" spans="1:14">
-      <c r="A133" s="69"/>
+      <c r="A133" s="70"/>
       <c r="B133" s="55">
         <v>42996</v>
       </c>
@@ -13976,7 +13976,7 @@
       </c>
     </row>
     <row r="134" spans="1:14">
-      <c r="A134" s="69"/>
+      <c r="A134" s="70"/>
       <c r="B134" s="55">
         <v>42996</v>
       </c>
@@ -14018,7 +14018,7 @@
       </c>
     </row>
     <row r="135" spans="1:14">
-      <c r="A135" s="69"/>
+      <c r="A135" s="70"/>
       <c r="B135" s="55">
         <v>42996</v>
       </c>
@@ -14060,7 +14060,7 @@
       </c>
     </row>
     <row r="136" spans="1:14">
-      <c r="A136" s="69"/>
+      <c r="A136" s="70"/>
       <c r="B136" s="55">
         <v>42996</v>
       </c>
@@ -14102,7 +14102,7 @@
       </c>
     </row>
     <row r="137" spans="1:14">
-      <c r="A137" s="70"/>
+      <c r="A137" s="71"/>
       <c r="B137" s="55">
         <v>42996</v>
       </c>
@@ -14144,7 +14144,7 @@
       </c>
     </row>
     <row r="138" spans="1:14">
-      <c r="A138" s="68">
+      <c r="A138" s="69">
         <v>39</v>
       </c>
       <c r="B138" s="55">
@@ -14188,7 +14188,7 @@
       </c>
     </row>
     <row r="139" spans="1:14">
-      <c r="A139" s="69"/>
+      <c r="A139" s="70"/>
       <c r="B139" s="55">
         <v>43000</v>
       </c>
@@ -14230,7 +14230,7 @@
       </c>
     </row>
     <row r="140" spans="1:14">
-      <c r="A140" s="69"/>
+      <c r="A140" s="70"/>
       <c r="B140" s="55">
         <v>43000</v>
       </c>
@@ -14272,7 +14272,7 @@
       </c>
     </row>
     <row r="141" spans="1:14">
-      <c r="A141" s="69"/>
+      <c r="A141" s="70"/>
       <c r="B141" s="55">
         <v>43000</v>
       </c>
@@ -14314,7 +14314,7 @@
       </c>
     </row>
     <row r="142" spans="1:14">
-      <c r="A142" s="69"/>
+      <c r="A142" s="70"/>
       <c r="B142" s="55">
         <v>43000</v>
       </c>
@@ -14356,7 +14356,7 @@
       </c>
     </row>
     <row r="143" spans="1:14">
-      <c r="A143" s="69"/>
+      <c r="A143" s="70"/>
       <c r="B143" s="55">
         <v>43000</v>
       </c>
@@ -14398,7 +14398,7 @@
       </c>
     </row>
     <row r="144" spans="1:14">
-      <c r="A144" s="69"/>
+      <c r="A144" s="70"/>
       <c r="B144" s="55">
         <v>43000</v>
       </c>
@@ -14440,7 +14440,7 @@
       </c>
     </row>
     <row r="145" spans="1:14">
-      <c r="A145" s="69"/>
+      <c r="A145" s="70"/>
       <c r="B145" s="55">
         <v>43000</v>
       </c>
@@ -14482,7 +14482,7 @@
       </c>
     </row>
     <row r="146" spans="1:14">
-      <c r="A146" s="69"/>
+      <c r="A146" s="70"/>
       <c r="B146" s="55">
         <v>43000</v>
       </c>
@@ -14524,7 +14524,7 @@
       </c>
     </row>
     <row r="147" spans="1:14">
-      <c r="A147" s="69"/>
+      <c r="A147" s="70"/>
       <c r="B147" s="55">
         <v>43000</v>
       </c>
@@ -14566,7 +14566,7 @@
       </c>
     </row>
     <row r="148" spans="1:14">
-      <c r="A148" s="69"/>
+      <c r="A148" s="70"/>
       <c r="B148" s="55">
         <v>43000</v>
       </c>
@@ -14608,7 +14608,7 @@
       </c>
     </row>
     <row r="149" spans="1:14">
-      <c r="A149" s="69"/>
+      <c r="A149" s="70"/>
       <c r="B149" s="55">
         <v>43000</v>
       </c>
@@ -14650,7 +14650,7 @@
       </c>
     </row>
     <row r="150" spans="1:14">
-      <c r="A150" s="69"/>
+      <c r="A150" s="70"/>
       <c r="B150" s="55">
         <v>43000</v>
       </c>
@@ -14692,7 +14692,7 @@
       </c>
     </row>
     <row r="151" spans="1:14">
-      <c r="A151" s="70"/>
+      <c r="A151" s="71"/>
       <c r="B151" s="55">
         <v>43000</v>
       </c>
@@ -14734,7 +14734,7 @@
       </c>
     </row>
     <row r="152" spans="1:14">
-      <c r="A152" s="68">
+      <c r="A152" s="69">
         <v>40</v>
       </c>
       <c r="B152" s="55">
@@ -14778,7 +14778,7 @@
       </c>
     </row>
     <row r="153" spans="1:14">
-      <c r="A153" s="69"/>
+      <c r="A153" s="70"/>
       <c r="B153" s="55">
         <v>43007</v>
       </c>
@@ -14820,7 +14820,7 @@
       </c>
     </row>
     <row r="154" spans="1:14">
-      <c r="A154" s="69"/>
+      <c r="A154" s="70"/>
       <c r="B154" s="55">
         <v>43007</v>
       </c>
@@ -14862,7 +14862,7 @@
       </c>
     </row>
     <row r="155" spans="1:14">
-      <c r="A155" s="69"/>
+      <c r="A155" s="70"/>
       <c r="B155" s="55">
         <v>43007</v>
       </c>
@@ -14904,7 +14904,7 @@
       </c>
     </row>
     <row r="156" spans="1:14">
-      <c r="A156" s="69"/>
+      <c r="A156" s="70"/>
       <c r="B156" s="55">
         <v>43007</v>
       </c>
@@ -14946,7 +14946,7 @@
       </c>
     </row>
     <row r="157" spans="1:14">
-      <c r="A157" s="69"/>
+      <c r="A157" s="70"/>
       <c r="B157" s="55">
         <v>43007</v>
       </c>
@@ -14988,7 +14988,7 @@
       </c>
     </row>
     <row r="158" spans="1:14">
-      <c r="A158" s="69"/>
+      <c r="A158" s="70"/>
       <c r="B158" s="55">
         <v>43007</v>
       </c>
@@ -15030,7 +15030,7 @@
       </c>
     </row>
     <row r="159" spans="1:14">
-      <c r="A159" s="69"/>
+      <c r="A159" s="70"/>
       <c r="B159" s="55">
         <v>43007</v>
       </c>
@@ -15072,7 +15072,7 @@
       </c>
     </row>
     <row r="160" spans="1:14">
-      <c r="A160" s="69"/>
+      <c r="A160" s="70"/>
       <c r="B160" s="55">
         <v>43007</v>
       </c>
@@ -15114,7 +15114,7 @@
       </c>
     </row>
     <row r="161" spans="1:14">
-      <c r="A161" s="69"/>
+      <c r="A161" s="70"/>
       <c r="B161" s="55">
         <v>43007</v>
       </c>
@@ -15156,7 +15156,7 @@
       </c>
     </row>
     <row r="162" spans="1:14">
-      <c r="A162" s="69"/>
+      <c r="A162" s="70"/>
       <c r="B162" s="55">
         <v>43007</v>
       </c>
@@ -15198,7 +15198,7 @@
       </c>
     </row>
     <row r="163" spans="1:14">
-      <c r="A163" s="69"/>
+      <c r="A163" s="70"/>
       <c r="B163" s="55">
         <v>43007</v>
       </c>
@@ -15240,7 +15240,7 @@
       </c>
     </row>
     <row r="164" spans="1:14">
-      <c r="A164" s="69"/>
+      <c r="A164" s="70"/>
       <c r="B164" s="55">
         <v>43007</v>
       </c>
@@ -15282,7 +15282,7 @@
       </c>
     </row>
     <row r="165" spans="1:14">
-      <c r="A165" s="69"/>
+      <c r="A165" s="70"/>
       <c r="B165" s="55">
         <v>43007</v>
       </c>
@@ -15324,7 +15324,7 @@
       </c>
     </row>
     <row r="166" spans="1:14">
-      <c r="A166" s="69"/>
+      <c r="A166" s="70"/>
       <c r="B166" s="55">
         <v>43007</v>
       </c>
@@ -15366,7 +15366,7 @@
       </c>
     </row>
     <row r="167" spans="1:14">
-      <c r="A167" s="69"/>
+      <c r="A167" s="70"/>
       <c r="B167" s="55">
         <v>43007</v>
       </c>
@@ -15408,7 +15408,7 @@
       </c>
     </row>
     <row r="168" spans="1:14">
-      <c r="A168" s="69"/>
+      <c r="A168" s="70"/>
       <c r="B168" s="55">
         <v>43007</v>
       </c>
@@ -15450,7 +15450,7 @@
       </c>
     </row>
     <row r="169" spans="1:14">
-      <c r="A169" s="69"/>
+      <c r="A169" s="70"/>
       <c r="B169" s="55">
         <v>43007</v>
       </c>
@@ -15492,7 +15492,7 @@
       </c>
     </row>
     <row r="170" spans="1:14">
-      <c r="A170" s="69"/>
+      <c r="A170" s="70"/>
       <c r="B170" s="55">
         <v>43007</v>
       </c>
@@ -15534,7 +15534,7 @@
       </c>
     </row>
     <row r="171" spans="1:14">
-      <c r="A171" s="69"/>
+      <c r="A171" s="70"/>
       <c r="B171" s="55">
         <v>43007</v>
       </c>
@@ -15576,7 +15576,7 @@
       </c>
     </row>
     <row r="172" spans="1:14">
-      <c r="A172" s="69"/>
+      <c r="A172" s="70"/>
       <c r="B172" s="55">
         <v>43007</v>
       </c>
@@ -15618,7 +15618,7 @@
       </c>
     </row>
     <row r="173" spans="1:14">
-      <c r="A173" s="69"/>
+      <c r="A173" s="70"/>
       <c r="B173" s="55">
         <v>43007</v>
       </c>
@@ -15660,7 +15660,7 @@
       </c>
     </row>
     <row r="174" spans="1:14">
-      <c r="A174" s="69"/>
+      <c r="A174" s="70"/>
       <c r="B174" s="55">
         <v>43007</v>
       </c>
@@ -15702,7 +15702,7 @@
       </c>
     </row>
     <row r="175" spans="1:14">
-      <c r="A175" s="69"/>
+      <c r="A175" s="70"/>
       <c r="B175" s="55">
         <v>43007</v>
       </c>
@@ -15744,7 +15744,7 @@
       </c>
     </row>
     <row r="176" spans="1:14">
-      <c r="A176" s="69"/>
+      <c r="A176" s="70"/>
       <c r="B176" s="55">
         <v>43007</v>
       </c>
@@ -15786,7 +15786,7 @@
       </c>
     </row>
     <row r="177" spans="1:14">
-      <c r="A177" s="69"/>
+      <c r="A177" s="70"/>
       <c r="B177" s="55">
         <v>43007</v>
       </c>
@@ -15828,7 +15828,7 @@
       </c>
     </row>
     <row r="178" spans="1:14">
-      <c r="A178" s="69"/>
+      <c r="A178" s="70"/>
       <c r="B178" s="55">
         <v>43007</v>
       </c>
@@ -15870,7 +15870,7 @@
       </c>
     </row>
     <row r="179" spans="1:14">
-      <c r="A179" s="69"/>
+      <c r="A179" s="70"/>
       <c r="B179" s="55">
         <v>43007</v>
       </c>
@@ -15912,7 +15912,7 @@
       </c>
     </row>
     <row r="180" spans="1:14">
-      <c r="A180" s="69"/>
+      <c r="A180" s="70"/>
       <c r="B180" s="55">
         <v>43007</v>
       </c>
@@ -15954,7 +15954,7 @@
       </c>
     </row>
     <row r="181" spans="1:14">
-      <c r="A181" s="69"/>
+      <c r="A181" s="70"/>
       <c r="B181" s="55">
         <v>43007</v>
       </c>
@@ -15996,7 +15996,7 @@
       </c>
     </row>
     <row r="182" spans="1:14">
-      <c r="A182" s="69"/>
+      <c r="A182" s="70"/>
       <c r="B182" s="55">
         <v>43007</v>
       </c>
@@ -16038,7 +16038,7 @@
       </c>
     </row>
     <row r="183" spans="1:14">
-      <c r="A183" s="69"/>
+      <c r="A183" s="70"/>
       <c r="B183" s="55">
         <v>43007</v>
       </c>
@@ -16080,7 +16080,7 @@
       </c>
     </row>
     <row r="184" spans="1:14">
-      <c r="A184" s="69"/>
+      <c r="A184" s="70"/>
       <c r="B184" s="55">
         <v>43007</v>
       </c>
@@ -16122,7 +16122,7 @@
       </c>
     </row>
     <row r="185" spans="1:14">
-      <c r="A185" s="69"/>
+      <c r="A185" s="70"/>
       <c r="B185" s="55">
         <v>43007</v>
       </c>
@@ -16164,7 +16164,7 @@
       </c>
     </row>
     <row r="186" spans="1:14">
-      <c r="A186" s="69"/>
+      <c r="A186" s="70"/>
       <c r="B186" s="55">
         <v>43007</v>
       </c>
@@ -16206,7 +16206,7 @@
       </c>
     </row>
     <row r="187" spans="1:14">
-      <c r="A187" s="69"/>
+      <c r="A187" s="70"/>
       <c r="B187" s="55">
         <v>43007</v>
       </c>
@@ -16248,7 +16248,7 @@
       </c>
     </row>
     <row r="188" spans="1:14">
-      <c r="A188" s="69"/>
+      <c r="A188" s="70"/>
       <c r="B188" s="55">
         <v>43007</v>
       </c>
@@ -16290,7 +16290,7 @@
       </c>
     </row>
     <row r="189" spans="1:14">
-      <c r="A189" s="69"/>
+      <c r="A189" s="70"/>
       <c r="B189" s="55">
         <v>43007</v>
       </c>
@@ -16332,7 +16332,7 @@
       </c>
     </row>
     <row r="190" spans="1:14">
-      <c r="A190" s="69"/>
+      <c r="A190" s="70"/>
       <c r="B190" s="55">
         <v>43007</v>
       </c>
@@ -16374,7 +16374,7 @@
       </c>
     </row>
     <row r="191" spans="1:14">
-      <c r="A191" s="69"/>
+      <c r="A191" s="70"/>
       <c r="B191" s="55">
         <v>43007</v>
       </c>
@@ -16416,7 +16416,7 @@
       </c>
     </row>
     <row r="192" spans="1:14">
-      <c r="A192" s="69"/>
+      <c r="A192" s="70"/>
       <c r="B192" s="55">
         <v>43007</v>
       </c>
@@ -16458,7 +16458,7 @@
       </c>
     </row>
     <row r="193" spans="1:14">
-      <c r="A193" s="69"/>
+      <c r="A193" s="70"/>
       <c r="B193" s="55">
         <v>43007</v>
       </c>
@@ -16500,7 +16500,7 @@
       </c>
     </row>
     <row r="194" spans="1:14">
-      <c r="A194" s="69"/>
+      <c r="A194" s="70"/>
       <c r="B194" s="55">
         <v>43007</v>
       </c>
@@ -16542,7 +16542,7 @@
       </c>
     </row>
     <row r="195" spans="1:14">
-      <c r="A195" s="69"/>
+      <c r="A195" s="70"/>
       <c r="B195" s="55">
         <v>43007</v>
       </c>
@@ -16584,7 +16584,7 @@
       </c>
     </row>
     <row r="196" spans="1:14">
-      <c r="A196" s="69"/>
+      <c r="A196" s="70"/>
       <c r="B196" s="55">
         <v>43007</v>
       </c>
@@ -16626,7 +16626,7 @@
       </c>
     </row>
     <row r="197" spans="1:14">
-      <c r="A197" s="69"/>
+      <c r="A197" s="70"/>
       <c r="B197" s="55">
         <v>43007</v>
       </c>
@@ -16668,7 +16668,7 @@
       </c>
     </row>
     <row r="198" spans="1:14">
-      <c r="A198" s="69"/>
+      <c r="A198" s="70"/>
       <c r="B198" s="55">
         <v>43007</v>
       </c>
@@ -16710,7 +16710,7 @@
       </c>
     </row>
     <row r="199" spans="1:14">
-      <c r="A199" s="69"/>
+      <c r="A199" s="70"/>
       <c r="B199" s="55">
         <v>43007</v>
       </c>
@@ -16752,7 +16752,7 @@
       </c>
     </row>
     <row r="200" spans="1:14">
-      <c r="A200" s="69"/>
+      <c r="A200" s="70"/>
       <c r="B200" s="55">
         <v>43007</v>
       </c>
@@ -16794,7 +16794,7 @@
       </c>
     </row>
     <row r="201" spans="1:14">
-      <c r="A201" s="69"/>
+      <c r="A201" s="70"/>
       <c r="B201" s="55">
         <v>43007</v>
       </c>
@@ -16836,7 +16836,7 @@
       </c>
     </row>
     <row r="202" spans="1:14">
-      <c r="A202" s="69"/>
+      <c r="A202" s="70"/>
       <c r="B202" s="55">
         <v>43007</v>
       </c>
@@ -16878,7 +16878,7 @@
       </c>
     </row>
     <row r="203" spans="1:14">
-      <c r="A203" s="70"/>
+      <c r="A203" s="71"/>
       <c r="B203" s="55">
         <v>43007</v>
       </c>
@@ -16920,7 +16920,7 @@
       </c>
     </row>
     <row r="204" spans="1:14">
-      <c r="A204" s="68">
+      <c r="A204" s="69">
         <v>42</v>
       </c>
       <c r="B204" s="55">
@@ -16964,7 +16964,7 @@
       </c>
     </row>
     <row r="205" spans="1:14">
-      <c r="A205" s="69"/>
+      <c r="A205" s="70"/>
       <c r="B205" s="55">
         <v>43021</v>
       </c>
@@ -17006,7 +17006,7 @@
       </c>
     </row>
     <row r="206" spans="1:14">
-      <c r="A206" s="69"/>
+      <c r="A206" s="70"/>
       <c r="B206" s="55">
         <v>43021</v>
       </c>
@@ -17048,7 +17048,7 @@
       </c>
     </row>
     <row r="207" spans="1:14">
-      <c r="A207" s="69"/>
+      <c r="A207" s="70"/>
       <c r="B207" s="55">
         <v>43021</v>
       </c>
@@ -17090,7 +17090,7 @@
       </c>
     </row>
     <row r="208" spans="1:14">
-      <c r="A208" s="69"/>
+      <c r="A208" s="70"/>
       <c r="B208" s="55">
         <v>43021</v>
       </c>
@@ -17132,7 +17132,7 @@
       </c>
     </row>
     <row r="209" spans="1:14">
-      <c r="A209" s="69"/>
+      <c r="A209" s="70"/>
       <c r="B209" s="55">
         <v>43021</v>
       </c>
@@ -17174,7 +17174,7 @@
       </c>
     </row>
     <row r="210" spans="1:14">
-      <c r="A210" s="69"/>
+      <c r="A210" s="70"/>
       <c r="B210" s="55">
         <v>43021</v>
       </c>
@@ -17216,7 +17216,7 @@
       </c>
     </row>
     <row r="211" spans="1:14">
-      <c r="A211" s="69"/>
+      <c r="A211" s="70"/>
       <c r="B211" s="55">
         <v>43021</v>
       </c>
@@ -17258,7 +17258,7 @@
       </c>
     </row>
     <row r="212" spans="1:14">
-      <c r="A212" s="69"/>
+      <c r="A212" s="70"/>
       <c r="B212" s="55">
         <v>43021</v>
       </c>
@@ -17300,7 +17300,7 @@
       </c>
     </row>
     <row r="213" spans="1:14">
-      <c r="A213" s="69"/>
+      <c r="A213" s="70"/>
       <c r="B213" s="55">
         <v>43021</v>
       </c>
@@ -17342,7 +17342,7 @@
       </c>
     </row>
     <row r="214" spans="1:14">
-      <c r="A214" s="69"/>
+      <c r="A214" s="70"/>
       <c r="B214" s="55">
         <v>43021</v>
       </c>
@@ -17384,7 +17384,7 @@
       </c>
     </row>
     <row r="215" spans="1:14">
-      <c r="A215" s="69"/>
+      <c r="A215" s="70"/>
       <c r="B215" s="55">
         <v>43021</v>
       </c>
@@ -17426,7 +17426,7 @@
       </c>
     </row>
     <row r="216" spans="1:14">
-      <c r="A216" s="69"/>
+      <c r="A216" s="70"/>
       <c r="B216" s="55">
         <v>43021</v>
       </c>
@@ -17468,7 +17468,7 @@
       </c>
     </row>
     <row r="217" spans="1:14">
-      <c r="A217" s="69"/>
+      <c r="A217" s="70"/>
       <c r="B217" s="55">
         <v>43021</v>
       </c>
@@ -17510,7 +17510,7 @@
       </c>
     </row>
     <row r="218" spans="1:14">
-      <c r="A218" s="69"/>
+      <c r="A218" s="70"/>
       <c r="B218" s="55">
         <v>43021</v>
       </c>
@@ -17552,7 +17552,7 @@
       </c>
     </row>
     <row r="219" spans="1:14">
-      <c r="A219" s="69"/>
+      <c r="A219" s="70"/>
       <c r="B219" s="55">
         <v>43021</v>
       </c>
@@ -17594,7 +17594,7 @@
       </c>
     </row>
     <row r="220" spans="1:14">
-      <c r="A220" s="69"/>
+      <c r="A220" s="70"/>
       <c r="B220" s="55">
         <v>43021</v>
       </c>
@@ -17636,7 +17636,7 @@
       </c>
     </row>
     <row r="221" spans="1:14">
-      <c r="A221" s="70"/>
+      <c r="A221" s="71"/>
       <c r="B221" s="55">
         <v>43021</v>
       </c>
@@ -17678,7 +17678,7 @@
       </c>
     </row>
     <row r="222" spans="1:14">
-      <c r="A222" s="68">
+      <c r="A222" s="69">
         <v>43</v>
       </c>
       <c r="B222" s="55">
@@ -17722,7 +17722,7 @@
       </c>
     </row>
     <row r="223" spans="1:14">
-      <c r="A223" s="69"/>
+      <c r="A223" s="70"/>
       <c r="B223" s="55">
         <v>43028</v>
       </c>
@@ -17764,7 +17764,7 @@
       </c>
     </row>
     <row r="224" spans="1:14">
-      <c r="A224" s="69"/>
+      <c r="A224" s="70"/>
       <c r="B224" s="55">
         <v>43028</v>
       </c>
@@ -17806,7 +17806,7 @@
       </c>
     </row>
     <row r="225" spans="1:14">
-      <c r="A225" s="69"/>
+      <c r="A225" s="70"/>
       <c r="B225" s="55">
         <v>43028</v>
       </c>
@@ -17848,7 +17848,7 @@
       </c>
     </row>
     <row r="226" spans="1:14">
-      <c r="A226" s="69"/>
+      <c r="A226" s="70"/>
       <c r="B226" s="55">
         <v>43028</v>
       </c>
@@ -17890,7 +17890,7 @@
       </c>
     </row>
     <row r="227" spans="1:14">
-      <c r="A227" s="69"/>
+      <c r="A227" s="70"/>
       <c r="B227" s="55">
         <v>43028</v>
       </c>
@@ -17932,7 +17932,7 @@
       </c>
     </row>
     <row r="228" spans="1:14">
-      <c r="A228" s="69"/>
+      <c r="A228" s="70"/>
       <c r="B228" s="55">
         <v>43028</v>
       </c>
@@ -17974,7 +17974,7 @@
       </c>
     </row>
     <row r="229" spans="1:14">
-      <c r="A229" s="69"/>
+      <c r="A229" s="70"/>
       <c r="B229" s="55">
         <v>43028</v>
       </c>
@@ -18016,7 +18016,7 @@
       </c>
     </row>
     <row r="230" spans="1:14">
-      <c r="A230" s="69"/>
+      <c r="A230" s="70"/>
       <c r="B230" s="55">
         <v>43028</v>
       </c>
@@ -18058,7 +18058,7 @@
       </c>
     </row>
     <row r="231" spans="1:14">
-      <c r="A231" s="69"/>
+      <c r="A231" s="70"/>
       <c r="B231" s="55">
         <v>43028</v>
       </c>
@@ -18100,7 +18100,7 @@
       </c>
     </row>
     <row r="232" spans="1:14">
-      <c r="A232" s="69"/>
+      <c r="A232" s="70"/>
       <c r="B232" s="55">
         <v>43028</v>
       </c>
@@ -18142,7 +18142,7 @@
       </c>
     </row>
     <row r="233" spans="1:14">
-      <c r="A233" s="69"/>
+      <c r="A233" s="70"/>
       <c r="B233" s="55">
         <v>43028</v>
       </c>
@@ -18184,7 +18184,7 @@
       </c>
     </row>
     <row r="234" spans="1:14">
-      <c r="A234" s="69"/>
+      <c r="A234" s="70"/>
       <c r="B234" s="55">
         <v>43028</v>
       </c>
@@ -18226,7 +18226,7 @@
       </c>
     </row>
     <row r="235" spans="1:14">
-      <c r="A235" s="69"/>
+      <c r="A235" s="70"/>
       <c r="B235" s="55">
         <v>43028</v>
       </c>
@@ -18268,7 +18268,7 @@
       </c>
     </row>
     <row r="236" spans="1:14">
-      <c r="A236" s="69"/>
+      <c r="A236" s="70"/>
       <c r="B236" s="55">
         <v>43028</v>
       </c>
@@ -18310,7 +18310,7 @@
       </c>
     </row>
     <row r="237" spans="1:14">
-      <c r="A237" s="69"/>
+      <c r="A237" s="70"/>
       <c r="B237" s="55">
         <v>43028</v>
       </c>
@@ -18352,7 +18352,7 @@
       </c>
     </row>
     <row r="238" spans="1:14">
-      <c r="A238" s="69"/>
+      <c r="A238" s="70"/>
       <c r="B238" s="55">
         <v>43028</v>
       </c>
@@ -18394,7 +18394,7 @@
       </c>
     </row>
     <row r="239" spans="1:14">
-      <c r="A239" s="70"/>
+      <c r="A239" s="71"/>
       <c r="B239" s="55">
         <v>43028</v>
       </c>
@@ -18436,7 +18436,7 @@
       </c>
     </row>
     <row r="240" spans="1:14">
-      <c r="A240" s="68">
+      <c r="A240" s="69">
         <v>44</v>
       </c>
       <c r="B240" s="55">
@@ -18480,7 +18480,7 @@
       </c>
     </row>
     <row r="241" spans="1:14">
-      <c r="A241" s="69"/>
+      <c r="A241" s="70"/>
       <c r="B241" s="55">
         <v>43035</v>
       </c>
@@ -18522,7 +18522,7 @@
       </c>
     </row>
     <row r="242" spans="1:14">
-      <c r="A242" s="69"/>
+      <c r="A242" s="70"/>
       <c r="B242" s="55">
         <v>43035</v>
       </c>
@@ -18564,7 +18564,7 @@
       </c>
     </row>
     <row r="243" spans="1:14">
-      <c r="A243" s="69"/>
+      <c r="A243" s="70"/>
       <c r="B243" s="55">
         <v>43035</v>
       </c>
@@ -18606,7 +18606,7 @@
       </c>
     </row>
     <row r="244" spans="1:14">
-      <c r="A244" s="69"/>
+      <c r="A244" s="70"/>
       <c r="B244" s="55">
         <v>43035</v>
       </c>
@@ -18648,7 +18648,7 @@
       </c>
     </row>
     <row r="245" spans="1:14">
-      <c r="A245" s="69"/>
+      <c r="A245" s="70"/>
       <c r="B245" s="55">
         <v>43035</v>
       </c>
@@ -18690,7 +18690,7 @@
       </c>
     </row>
     <row r="246" spans="1:14">
-      <c r="A246" s="69"/>
+      <c r="A246" s="70"/>
       <c r="B246" s="55">
         <v>43035</v>
       </c>
@@ -18732,7 +18732,7 @@
       </c>
     </row>
     <row r="247" spans="1:14">
-      <c r="A247" s="69"/>
+      <c r="A247" s="70"/>
       <c r="B247" s="55">
         <v>43035</v>
       </c>
@@ -18774,7 +18774,7 @@
       </c>
     </row>
     <row r="248" spans="1:14">
-      <c r="A248" s="69"/>
+      <c r="A248" s="70"/>
       <c r="B248" s="55">
         <v>43035</v>
       </c>
@@ -18816,7 +18816,7 @@
       </c>
     </row>
     <row r="249" spans="1:14">
-      <c r="A249" s="69"/>
+      <c r="A249" s="70"/>
       <c r="B249" s="55">
         <v>43035</v>
       </c>
@@ -18858,7 +18858,7 @@
       </c>
     </row>
     <row r="250" spans="1:14">
-      <c r="A250" s="69"/>
+      <c r="A250" s="70"/>
       <c r="B250" s="55">
         <v>43035</v>
       </c>
@@ -18900,7 +18900,7 @@
       </c>
     </row>
     <row r="251" spans="1:14">
-      <c r="A251" s="69"/>
+      <c r="A251" s="70"/>
       <c r="B251" s="55">
         <v>43035</v>
       </c>
@@ -18942,7 +18942,7 @@
       </c>
     </row>
     <row r="252" spans="1:14">
-      <c r="A252" s="69"/>
+      <c r="A252" s="70"/>
       <c r="B252" s="55">
         <v>43035</v>
       </c>
@@ -18984,7 +18984,7 @@
       </c>
     </row>
     <row r="253" spans="1:14">
-      <c r="A253" s="69"/>
+      <c r="A253" s="70"/>
       <c r="B253" s="55">
         <v>43035</v>
       </c>
@@ -19026,7 +19026,7 @@
       </c>
     </row>
     <row r="254" spans="1:14">
-      <c r="A254" s="69"/>
+      <c r="A254" s="70"/>
       <c r="B254" s="55">
         <v>43035</v>
       </c>
@@ -19068,7 +19068,7 @@
       </c>
     </row>
     <row r="255" spans="1:14">
-      <c r="A255" s="69"/>
+      <c r="A255" s="70"/>
       <c r="B255" s="55">
         <v>43035</v>
       </c>
@@ -19110,7 +19110,7 @@
       </c>
     </row>
     <row r="256" spans="1:14">
-      <c r="A256" s="69"/>
+      <c r="A256" s="70"/>
       <c r="B256" s="55">
         <v>43035</v>
       </c>
@@ -19152,7 +19152,7 @@
       </c>
     </row>
     <row r="257" spans="1:14">
-      <c r="A257" s="69"/>
+      <c r="A257" s="70"/>
       <c r="B257" s="55">
         <v>43039</v>
       </c>
@@ -19194,7 +19194,7 @@
       </c>
     </row>
     <row r="258" spans="1:14">
-      <c r="A258" s="69"/>
+      <c r="A258" s="70"/>
       <c r="B258" s="55">
         <v>43039</v>
       </c>
@@ -19236,7 +19236,7 @@
       </c>
     </row>
     <row r="259" spans="1:14">
-      <c r="A259" s="69"/>
+      <c r="A259" s="70"/>
       <c r="B259" s="55">
         <v>43039</v>
       </c>
@@ -19278,7 +19278,7 @@
       </c>
     </row>
     <row r="260" spans="1:14">
-      <c r="A260" s="69"/>
+      <c r="A260" s="70"/>
       <c r="B260" s="55">
         <v>43039</v>
       </c>
@@ -19320,7 +19320,7 @@
       </c>
     </row>
     <row r="261" spans="1:14">
-      <c r="A261" s="69"/>
+      <c r="A261" s="70"/>
       <c r="B261" s="55">
         <v>43039</v>
       </c>
@@ -19362,7 +19362,7 @@
       </c>
     </row>
     <row r="262" spans="1:14">
-      <c r="A262" s="69"/>
+      <c r="A262" s="70"/>
       <c r="B262" s="55">
         <v>43039</v>
       </c>
@@ -19404,7 +19404,7 @@
       </c>
     </row>
     <row r="263" spans="1:14">
-      <c r="A263" s="69"/>
+      <c r="A263" s="70"/>
       <c r="B263" s="55">
         <v>43039</v>
       </c>
@@ -19446,7 +19446,7 @@
       </c>
     </row>
     <row r="264" spans="1:14">
-      <c r="A264" s="69"/>
+      <c r="A264" s="70"/>
       <c r="B264" s="55">
         <v>43039</v>
       </c>
@@ -19488,7 +19488,7 @@
       </c>
     </row>
     <row r="265" spans="1:14">
-      <c r="A265" s="69"/>
+      <c r="A265" s="70"/>
       <c r="B265" s="55">
         <v>43039</v>
       </c>
@@ -19530,7 +19530,7 @@
       </c>
     </row>
     <row r="266" spans="1:14">
-      <c r="A266" s="69"/>
+      <c r="A266" s="70"/>
       <c r="B266" s="55">
         <v>43039</v>
       </c>
@@ -19572,7 +19572,7 @@
       </c>
     </row>
     <row r="267" spans="1:14">
-      <c r="A267" s="69"/>
+      <c r="A267" s="70"/>
       <c r="B267" s="55">
         <v>43039</v>
       </c>
@@ -19614,7 +19614,7 @@
       </c>
     </row>
     <row r="268" spans="1:14">
-      <c r="A268" s="69"/>
+      <c r="A268" s="70"/>
       <c r="B268" s="55">
         <v>43039</v>
       </c>
@@ -19656,7 +19656,7 @@
       </c>
     </row>
     <row r="269" spans="1:14">
-      <c r="A269" s="69"/>
+      <c r="A269" s="70"/>
       <c r="B269" s="55">
         <v>43039</v>
       </c>
@@ -19698,7 +19698,7 @@
       </c>
     </row>
     <row r="270" spans="1:14">
-      <c r="A270" s="69"/>
+      <c r="A270" s="70"/>
       <c r="B270" s="55">
         <v>43039</v>
       </c>
@@ -19740,7 +19740,7 @@
       </c>
     </row>
     <row r="271" spans="1:14">
-      <c r="A271" s="69"/>
+      <c r="A271" s="70"/>
       <c r="B271" s="55">
         <v>43039</v>
       </c>
@@ -19782,7 +19782,7 @@
       </c>
     </row>
     <row r="272" spans="1:14">
-      <c r="A272" s="69"/>
+      <c r="A272" s="70"/>
       <c r="B272" s="55">
         <v>43039</v>
       </c>
@@ -19824,7 +19824,7 @@
       </c>
     </row>
     <row r="273" spans="1:14">
-      <c r="A273" s="69"/>
+      <c r="A273" s="70"/>
       <c r="B273" s="55">
         <v>43039</v>
       </c>
@@ -19866,7 +19866,7 @@
       </c>
     </row>
     <row r="274" spans="1:14">
-      <c r="A274" s="69"/>
+      <c r="A274" s="70"/>
       <c r="B274" s="55">
         <v>43039</v>
       </c>
@@ -19908,7 +19908,7 @@
       </c>
     </row>
     <row r="275" spans="1:14">
-      <c r="A275" s="70"/>
+      <c r="A275" s="71"/>
       <c r="B275" s="55">
         <v>43039</v>
       </c>
@@ -19950,10 +19950,10 @@
       </c>
     </row>
     <row r="276" spans="1:14">
-      <c r="A276" s="68">
+      <c r="A276" s="69">
         <v>45</v>
       </c>
-      <c r="B276" s="76">
+      <c r="B276" s="59">
         <v>43042</v>
       </c>
       <c r="C276" s="4" t="s">
@@ -19994,8 +19994,8 @@
       </c>
     </row>
     <row r="277" spans="1:14">
-      <c r="A277" s="69"/>
-      <c r="B277" s="76">
+      <c r="A277" s="70"/>
+      <c r="B277" s="59">
         <v>43042</v>
       </c>
       <c r="C277" s="4" t="s">
@@ -20036,8 +20036,8 @@
       </c>
     </row>
     <row r="278" spans="1:14">
-      <c r="A278" s="69"/>
-      <c r="B278" s="76">
+      <c r="A278" s="70"/>
+      <c r="B278" s="59">
         <v>43042</v>
       </c>
       <c r="C278" s="4" t="s">
@@ -20078,8 +20078,8 @@
       </c>
     </row>
     <row r="279" spans="1:14">
-      <c r="A279" s="69"/>
-      <c r="B279" s="76">
+      <c r="A279" s="70"/>
+      <c r="B279" s="59">
         <v>43042</v>
       </c>
       <c r="C279" s="4" t="s">
@@ -20120,8 +20120,8 @@
       </c>
     </row>
     <row r="280" spans="1:14">
-      <c r="A280" s="69"/>
-      <c r="B280" s="76">
+      <c r="A280" s="70"/>
+      <c r="B280" s="59">
         <v>43042</v>
       </c>
       <c r="C280" s="4" t="s">
@@ -20162,8 +20162,8 @@
       </c>
     </row>
     <row r="281" spans="1:14">
-      <c r="A281" s="69"/>
-      <c r="B281" s="76">
+      <c r="A281" s="70"/>
+      <c r="B281" s="59">
         <v>43042</v>
       </c>
       <c r="C281" s="4" t="s">
@@ -20204,8 +20204,8 @@
       </c>
     </row>
     <row r="282" spans="1:14">
-      <c r="A282" s="69"/>
-      <c r="B282" s="76">
+      <c r="A282" s="70"/>
+      <c r="B282" s="59">
         <v>43042</v>
       </c>
       <c r="C282" s="4" t="s">
@@ -20246,8 +20246,8 @@
       </c>
     </row>
     <row r="283" spans="1:14">
-      <c r="A283" s="69"/>
-      <c r="B283" s="76">
+      <c r="A283" s="70"/>
+      <c r="B283" s="59">
         <v>43042</v>
       </c>
       <c r="C283" s="4" t="s">
@@ -20288,8 +20288,8 @@
       </c>
     </row>
     <row r="284" spans="1:14">
-      <c r="A284" s="69"/>
-      <c r="B284" s="76">
+      <c r="A284" s="70"/>
+      <c r="B284" s="59">
         <v>43042</v>
       </c>
       <c r="C284" s="4" t="s">
@@ -20330,8 +20330,8 @@
       </c>
     </row>
     <row r="285" spans="1:14">
-      <c r="A285" s="69"/>
-      <c r="B285" s="76">
+      <c r="A285" s="70"/>
+      <c r="B285" s="59">
         <v>43042</v>
       </c>
       <c r="C285" s="4" t="s">
@@ -20372,8 +20372,8 @@
       </c>
     </row>
     <row r="286" spans="1:14">
-      <c r="A286" s="69"/>
-      <c r="B286" s="76">
+      <c r="A286" s="70"/>
+      <c r="B286" s="59">
         <v>43042</v>
       </c>
       <c r="C286" s="4" t="s">
@@ -20414,8 +20414,8 @@
       </c>
     </row>
     <row r="287" spans="1:14">
-      <c r="A287" s="69"/>
-      <c r="B287" s="76">
+      <c r="A287" s="70"/>
+      <c r="B287" s="59">
         <v>43042</v>
       </c>
       <c r="C287" s="4" t="s">
@@ -20456,8 +20456,8 @@
       </c>
     </row>
     <row r="288" spans="1:14">
-      <c r="A288" s="69"/>
-      <c r="B288" s="76">
+      <c r="A288" s="70"/>
+      <c r="B288" s="59">
         <v>43042</v>
       </c>
       <c r="C288" s="4" t="s">
@@ -20498,8 +20498,8 @@
       </c>
     </row>
     <row r="289" spans="1:14">
-      <c r="A289" s="69"/>
-      <c r="B289" s="76">
+      <c r="A289" s="70"/>
+      <c r="B289" s="59">
         <v>43042</v>
       </c>
       <c r="C289" s="4" t="s">
@@ -20540,8 +20540,8 @@
       </c>
     </row>
     <row r="290" spans="1:14">
-      <c r="A290" s="69"/>
-      <c r="B290" s="76">
+      <c r="A290" s="70"/>
+      <c r="B290" s="59">
         <v>43042</v>
       </c>
       <c r="C290" s="4" t="s">
@@ -20582,8 +20582,8 @@
       </c>
     </row>
     <row r="291" spans="1:14">
-      <c r="A291" s="69"/>
-      <c r="B291" s="76">
+      <c r="A291" s="70"/>
+      <c r="B291" s="59">
         <v>43042</v>
       </c>
       <c r="C291" s="4" t="s">
@@ -20624,8 +20624,8 @@
       </c>
     </row>
     <row r="292" spans="1:14">
-      <c r="A292" s="69"/>
-      <c r="B292" s="76">
+      <c r="A292" s="70"/>
+      <c r="B292" s="59">
         <v>43042</v>
       </c>
       <c r="C292" s="4" t="s">
@@ -20666,8 +20666,8 @@
       </c>
     </row>
     <row r="293" spans="1:14">
-      <c r="A293" s="69"/>
-      <c r="B293" s="76">
+      <c r="A293" s="70"/>
+      <c r="B293" s="59">
         <v>43042</v>
       </c>
       <c r="C293" s="4" t="s">
@@ -20708,8 +20708,8 @@
       </c>
     </row>
     <row r="294" spans="1:14">
-      <c r="A294" s="69"/>
-      <c r="B294" s="76">
+      <c r="A294" s="70"/>
+      <c r="B294" s="59">
         <v>43042</v>
       </c>
       <c r="C294" s="4" t="s">
@@ -20750,8 +20750,8 @@
       </c>
     </row>
     <row r="295" spans="1:14">
-      <c r="A295" s="69"/>
-      <c r="B295" s="76">
+      <c r="A295" s="70"/>
+      <c r="B295" s="59">
         <v>43042</v>
       </c>
       <c r="C295" s="4" t="s">
@@ -20792,8 +20792,8 @@
       </c>
     </row>
     <row r="296" spans="1:14">
-      <c r="A296" s="69"/>
-      <c r="B296" s="76">
+      <c r="A296" s="70"/>
+      <c r="B296" s="59">
         <v>43042</v>
       </c>
       <c r="C296" s="4" t="s">
@@ -20834,8 +20834,8 @@
       </c>
     </row>
     <row r="297" spans="1:14">
-      <c r="A297" s="69"/>
-      <c r="B297" s="76">
+      <c r="A297" s="70"/>
+      <c r="B297" s="59">
         <v>43042</v>
       </c>
       <c r="C297" s="4" t="s">
@@ -20876,8 +20876,8 @@
       </c>
     </row>
     <row r="298" spans="1:14">
-      <c r="A298" s="69"/>
-      <c r="B298" s="76">
+      <c r="A298" s="70"/>
+      <c r="B298" s="59">
         <v>43042</v>
       </c>
       <c r="C298" s="4" t="s">
@@ -20918,8 +20918,8 @@
       </c>
     </row>
     <row r="299" spans="1:14">
-      <c r="A299" s="69"/>
-      <c r="B299" s="76">
+      <c r="A299" s="70"/>
+      <c r="B299" s="59">
         <v>43042</v>
       </c>
       <c r="C299" s="4" t="s">
@@ -20960,8 +20960,8 @@
       </c>
     </row>
     <row r="300" spans="1:14">
-      <c r="A300" s="69"/>
-      <c r="B300" s="76">
+      <c r="A300" s="70"/>
+      <c r="B300" s="59">
         <v>43042</v>
       </c>
       <c r="C300" s="4" t="s">
@@ -21002,8 +21002,8 @@
       </c>
     </row>
     <row r="301" spans="1:14">
-      <c r="A301" s="69"/>
-      <c r="B301" s="76">
+      <c r="A301" s="70"/>
+      <c r="B301" s="59">
         <v>43042</v>
       </c>
       <c r="C301" s="4" t="s">
@@ -21044,8 +21044,8 @@
       </c>
     </row>
     <row r="302" spans="1:14">
-      <c r="A302" s="69"/>
-      <c r="B302" s="76">
+      <c r="A302" s="70"/>
+      <c r="B302" s="59">
         <v>43042</v>
       </c>
       <c r="C302" s="4" t="s">
@@ -21086,8 +21086,8 @@
       </c>
     </row>
     <row r="303" spans="1:14">
-      <c r="A303" s="69"/>
-      <c r="B303" s="76">
+      <c r="A303" s="70"/>
+      <c r="B303" s="59">
         <v>43042</v>
       </c>
       <c r="C303" s="4" t="s">
@@ -21128,8 +21128,8 @@
       </c>
     </row>
     <row r="304" spans="1:14">
-      <c r="A304" s="69"/>
-      <c r="B304" s="76">
+      <c r="A304" s="70"/>
+      <c r="B304" s="59">
         <v>43042</v>
       </c>
       <c r="C304" s="4" t="s">
@@ -21170,8 +21170,8 @@
       </c>
     </row>
     <row r="305" spans="1:14">
-      <c r="A305" s="69"/>
-      <c r="B305" s="76">
+      <c r="A305" s="70"/>
+      <c r="B305" s="59">
         <v>43042</v>
       </c>
       <c r="C305" s="4" t="s">
@@ -21212,8 +21212,8 @@
       </c>
     </row>
     <row r="306" spans="1:14">
-      <c r="A306" s="69"/>
-      <c r="B306" s="76">
+      <c r="A306" s="70"/>
+      <c r="B306" s="59">
         <v>43042</v>
       </c>
       <c r="C306" s="4" t="s">
@@ -21254,8 +21254,8 @@
       </c>
     </row>
     <row r="307" spans="1:14">
-      <c r="A307" s="69"/>
-      <c r="B307" s="76">
+      <c r="A307" s="70"/>
+      <c r="B307" s="59">
         <v>43042</v>
       </c>
       <c r="C307" s="4" t="s">
@@ -21296,8 +21296,8 @@
       </c>
     </row>
     <row r="308" spans="1:14">
-      <c r="A308" s="69"/>
-      <c r="B308" s="76">
+      <c r="A308" s="70"/>
+      <c r="B308" s="59">
         <v>43042</v>
       </c>
       <c r="C308" s="4" t="s">
@@ -21338,8 +21338,8 @@
       </c>
     </row>
     <row r="309" spans="1:14">
-      <c r="A309" s="70"/>
-      <c r="B309" s="76">
+      <c r="A309" s="71"/>
+      <c r="B309" s="59">
         <v>43042</v>
       </c>
       <c r="C309" s="4" t="s">
@@ -22304,8 +22304,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="13.5"/>
